--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-905873.9568746638</v>
+        <v>-907839.8343008672</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2206069.635128964</v>
+        <v>2206069.635128965</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38.19053515138876</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,58 +671,58 @@
         <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
+        <v>91.10378467502352</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>205.8118405263978</v>
+      </c>
+      <c r="T2" t="n">
+        <v>222.4795457699687</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>120.3626239880289</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>171.542852475626</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6773952840984507</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>94.25736106477142</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>366.9260724090125</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>154.7784901132543</v>
+        <v>366.9260724090148</v>
       </c>
       <c r="G5" t="n">
-        <v>366.9260724090125</v>
+        <v>14.84782975053752</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.93805797576</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>121.2935180732507</v>
+        <v>121.2935180732502</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.1044908246057</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>226.220950692952</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>366.9260724090148</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.1001200512375</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>85.04586258645351</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>167.1621765020568</v>
       </c>
       <c r="T6" t="n">
-        <v>67.09831635878483</v>
+        <v>32.26619588527208</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9253691130818</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7869233960194</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.2879093118683</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>57.49017935579575</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5.983388191319386</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>265.7104570423479</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.908481403325515</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>281.6126679114864</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>372.3364085329071</v>
+        <v>372.3364085329072</v>
       </c>
       <c r="C11" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D11" t="n">
-        <v>344.2856084901095</v>
+        <v>344.2856084901096</v>
       </c>
       <c r="E11" t="n">
-        <v>371.5329369416878</v>
+        <v>371.5329369416884</v>
       </c>
       <c r="F11" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G11" t="n">
-        <v>401.690860353226</v>
+        <v>401.6908603532261</v>
       </c>
       <c r="H11" t="n">
-        <v>296.1574440492782</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I11" t="n">
-        <v>76.15360292176763</v>
+        <v>76.15360292176766</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T11" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863855</v>
       </c>
       <c r="U11" t="n">
         <v>240.6910642547562</v>
       </c>
       <c r="V11" t="n">
-        <v>317.3548253395614</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W11" t="n">
         <v>338.8435355868396</v>
@@ -1436,7 +1436,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.8405055254801</v>
+        <v>375.8405055254802</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>95.62503214164755</v>
       </c>
       <c r="I12" t="n">
-        <v>30.18149436614536</v>
+        <v>30.18149436614537</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.89895595835634</v>
       </c>
       <c r="S13" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>125.4069865916299</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.8429477387573</v>
@@ -1588,13 +1588,13 @@
         <v>241.7402101932546</v>
       </c>
       <c r="W13" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372.3364085329071</v>
+        <v>372.3364085329072</v>
       </c>
       <c r="C14" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D14" t="n">
-        <v>344.2856084901095</v>
+        <v>344.2856084901096</v>
       </c>
       <c r="E14" t="n">
-        <v>371.5329369416883</v>
+        <v>371.5329369416884</v>
       </c>
       <c r="F14" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G14" t="n">
-        <v>401.690860353226</v>
+        <v>401.6908603532261</v>
       </c>
       <c r="H14" t="n">
-        <v>296.1574440492782</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I14" t="n">
-        <v>76.15360292176761</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T14" t="n">
         <v>198.6271876863864</v>
@@ -1664,7 +1664,7 @@
         <v>240.6910642547562</v>
       </c>
       <c r="V14" t="n">
-        <v>317.3548253395614</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W14" t="n">
         <v>338.8435355868396</v>
@@ -1673,7 +1673,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y14" t="n">
-        <v>375.8405055254801</v>
+        <v>375.8405055254802</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>95.62503214164755</v>
       </c>
       <c r="I15" t="n">
-        <v>30.18149436614536</v>
+        <v>30.18149436614537</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>136.0365295159957</v>
       </c>
       <c r="F16" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>156.1516572966162</v>
       </c>
       <c r="H16" t="n">
-        <v>139.0100359697638</v>
+        <v>104.3382324796477</v>
       </c>
       <c r="I16" t="n">
         <v>101.6915092090627</v>
@@ -1813,25 +1813,25 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>23.0343265314266</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I17" t="n">
-        <v>76.1536029217676</v>
+        <v>76.15360292176763</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>95.62503214164755</v>
       </c>
       <c r="I18" t="n">
-        <v>30.18149436614536</v>
+        <v>30.18149436614537</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>138.2180398876389</v>
       </c>
       <c r="E19" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>156.1516572966161</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T19" t="n">
-        <v>208.6416777929522</v>
+        <v>175.8901476698093</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.7402101932545</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.3364085329072</v>
+        <v>372.3364085329071</v>
       </c>
       <c r="C20" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D20" t="n">
-        <v>344.2856084901096</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E20" t="n">
-        <v>371.5329369416884</v>
+        <v>371.5329369416883</v>
       </c>
       <c r="F20" t="n">
-        <v>396.4786126111375</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G20" t="n">
-        <v>401.6908603532261</v>
+        <v>401.690860353226</v>
       </c>
       <c r="H20" t="n">
-        <v>296.1574440492783</v>
+        <v>296.1574440492782</v>
       </c>
       <c r="I20" t="n">
-        <v>76.15360292176766</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3734930916125</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T20" t="n">
         <v>198.6271876863864</v>
@@ -2138,7 +2138,7 @@
         <v>240.6910642547562</v>
       </c>
       <c r="V20" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395614</v>
       </c>
       <c r="W20" t="n">
         <v>338.8435355868396</v>
@@ -2147,7 +2147,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.8405055254802</v>
+        <v>375.8405055254801</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S22" t="n">
-        <v>188.4909732587351</v>
+        <v>20.23896859606495</v>
       </c>
       <c r="T22" t="n">
-        <v>55.43780625774635</v>
+        <v>211.3873581368306</v>
       </c>
       <c r="U22" t="n">
         <v>275.8429477387573</v>
       </c>
       <c r="V22" t="n">
-        <v>241.7402101932546</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.1255652060176</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I23" t="n">
-        <v>76.1536029217683</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>338.8435355868396</v>
       </c>
       <c r="X23" t="n">
-        <v>359.3336675478956</v>
+        <v>359.3336675478953</v>
       </c>
       <c r="Y23" t="n">
         <v>375.8405055254801</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.4345470513638</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>156.1516572966161</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9.560131050647446</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>148.3078477001595</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V25" t="n">
         <v>241.7402101932545</v>
@@ -2573,7 +2573,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I26" t="n">
-        <v>76.15360292176754</v>
+        <v>76.15360292176757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3734930916123</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T26" t="n">
         <v>198.6271876863863</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.8493879680543</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.2180398876388</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>136.0365295159956</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.0236148923577</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.85096246011254</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>211.3873581368306</v>
       </c>
       <c r="U28" t="n">
         <v>275.8429477387572</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W28" t="n">
         <v>276.1255652060175</v>
@@ -2779,7 +2779,7 @@
         <v>215.3122222584636</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>194.8509663940736</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I29" t="n">
-        <v>76.15360292176754</v>
+        <v>76.15360292176757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3734930916123</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T29" t="n">
         <v>198.6271876863863</v>
@@ -2849,7 +2849,7 @@
         <v>240.6910642547561</v>
       </c>
       <c r="V29" t="n">
-        <v>317.3548253395618</v>
+        <v>317.3548253395637</v>
       </c>
       <c r="W29" t="n">
         <v>338.8435355868395</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D31" t="n">
         <v>138.2180398876388</v>
       </c>
       <c r="E31" t="n">
-        <v>136.0365295159956</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F31" t="n">
-        <v>135.0236148923577</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.0100359697637</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>101.6915092090626</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>23.78138923464117</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.490973258735</v>
+        <v>22.05070738074346</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>275.8429477387572</v>
       </c>
       <c r="V31" t="n">
-        <v>241.7402101932545</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.1255652060175</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.0882934837995</v>
+        <v>341.4451497419507</v>
       </c>
       <c r="H32" t="n">
-        <v>291.8796677049467</v>
+        <v>306.5548771798517</v>
       </c>
       <c r="I32" t="n">
-        <v>15.90789231049229</v>
+        <v>86.55103605234109</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>135.7709262221859</v>
+        <v>65.12778248033706</v>
       </c>
       <c r="T32" t="n">
-        <v>138.3814770751111</v>
+        <v>194.3494113420574</v>
       </c>
       <c r="U32" t="n">
         <v>251.0884973853296</v>
@@ -3187,25 +3187,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60367735677904</v>
+        <v>96.60367735677902</v>
       </c>
       <c r="D34" t="n">
-        <v>77.97232927636357</v>
+        <v>77.97232927636354</v>
       </c>
       <c r="E34" t="n">
-        <v>75.79081890472038</v>
+        <v>75.79081890472035</v>
       </c>
       <c r="F34" t="n">
-        <v>74.77790428108246</v>
+        <v>74.77790428108243</v>
       </c>
       <c r="G34" t="n">
-        <v>95.90594668534079</v>
+        <v>95.90594668534077</v>
       </c>
       <c r="H34" t="n">
-        <v>78.76432535848848</v>
+        <v>78.76432535848845</v>
       </c>
       <c r="I34" t="n">
-        <v>41.44579859778737</v>
+        <v>41.44579859778734</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.81767805298125</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S34" t="n">
         <v>128.2452626474598</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.0882934837995</v>
+        <v>341.4451497419507</v>
       </c>
       <c r="H35" t="n">
-        <v>235.9117334380029</v>
+        <v>306.5548771798517</v>
       </c>
       <c r="I35" t="n">
-        <v>86.55103605234109</v>
+        <v>71.87582657743691</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>121.0957167472825</v>
+        <v>135.7709262221859</v>
       </c>
       <c r="T35" t="n">
-        <v>138.3814770751111</v>
+        <v>138.381477075111</v>
       </c>
       <c r="U35" t="n">
         <v>251.0884973853296</v>
@@ -3424,25 +3424,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C37" t="n">
-        <v>96.60367735677903</v>
+        <v>96.603677356779</v>
       </c>
       <c r="D37" t="n">
-        <v>77.97232927636355</v>
+        <v>77.97232927636352</v>
       </c>
       <c r="E37" t="n">
-        <v>75.79081890472037</v>
+        <v>75.79081890472034</v>
       </c>
       <c r="F37" t="n">
-        <v>74.77790428108244</v>
+        <v>74.77790428108241</v>
       </c>
       <c r="G37" t="n">
-        <v>95.90594668534078</v>
+        <v>95.90594668534075</v>
       </c>
       <c r="H37" t="n">
-        <v>78.76432535848846</v>
+        <v>78.76432535848843</v>
       </c>
       <c r="I37" t="n">
-        <v>41.44579859778736</v>
+        <v>41.44579859778733</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.81767805298124</v>
+        <v>41.81767805298121</v>
       </c>
       <c r="S37" t="n">
-        <v>128.2452626474598</v>
+        <v>128.2452626474597</v>
       </c>
       <c r="T37" t="n">
         <v>151.1416475255553</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.0906979216318</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.0882934837995</v>
+        <v>341.4451497419507</v>
       </c>
       <c r="H38" t="n">
         <v>306.5548771798517</v>
       </c>
       <c r="I38" t="n">
-        <v>15.90789231049229</v>
+        <v>86.55103605234109</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>135.7709262221859</v>
       </c>
       <c r="T38" t="n">
-        <v>209.0246208169599</v>
+        <v>194.3494113420547</v>
       </c>
       <c r="U38" t="n">
-        <v>236.4132879104249</v>
+        <v>180.4453536434808</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C40" t="n">
-        <v>96.60367735677904</v>
+        <v>96.60367735677903</v>
       </c>
       <c r="D40" t="n">
-        <v>77.97232927636357</v>
+        <v>77.97232927636355</v>
       </c>
       <c r="E40" t="n">
-        <v>75.79081890472038</v>
+        <v>75.79081890472037</v>
       </c>
       <c r="F40" t="n">
-        <v>74.77790428108246</v>
+        <v>74.77790428108244</v>
       </c>
       <c r="G40" t="n">
-        <v>95.90594668534079</v>
+        <v>95.90594668534078</v>
       </c>
       <c r="H40" t="n">
-        <v>78.76432535848848</v>
+        <v>78.76432535848846</v>
       </c>
       <c r="I40" t="n">
-        <v>41.44579859778737</v>
+        <v>41.44579859778736</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.81767805298125</v>
+        <v>41.81767805298124</v>
       </c>
       <c r="S40" t="n">
         <v>128.2452626474598</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>312.0906979216317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,10 +3755,10 @@
         <v>412.0882934837995</v>
       </c>
       <c r="H41" t="n">
-        <v>235.9117334380028</v>
+        <v>235.9117334380029</v>
       </c>
       <c r="I41" t="n">
-        <v>86.55103605234113</v>
+        <v>71.87582657743691</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>135.7709262221859</v>
+        <v>65.12778248033707</v>
       </c>
       <c r="T41" t="n">
         <v>209.0246208169599</v>
       </c>
       <c r="U41" t="n">
-        <v>236.4132879104249</v>
+        <v>251.0884973853296</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C43" t="n">
-        <v>96.60367735677899</v>
+        <v>96.60367735677902</v>
       </c>
       <c r="D43" t="n">
-        <v>77.97232927636351</v>
+        <v>77.97232927636354</v>
       </c>
       <c r="E43" t="n">
-        <v>75.79081890472033</v>
+        <v>75.79081890472035</v>
       </c>
       <c r="F43" t="n">
-        <v>74.7779042810824</v>
+        <v>74.77790428108243</v>
       </c>
       <c r="G43" t="n">
-        <v>95.90594668534074</v>
+        <v>95.90594668534077</v>
       </c>
       <c r="H43" t="n">
-        <v>78.76432535848842</v>
+        <v>78.76432535848845</v>
       </c>
       <c r="I43" t="n">
-        <v>41.44579859778733</v>
+        <v>41.44579859778736</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298124</v>
       </c>
       <c r="S43" t="n">
-        <v>128.2452626474597</v>
+        <v>128.2452626474598</v>
       </c>
       <c r="T43" t="n">
-        <v>151.1416475255552</v>
+        <v>151.1416475255553</v>
       </c>
       <c r="U43" t="n">
         <v>215.5972371274819</v>
       </c>
       <c r="V43" t="n">
-        <v>181.4944995819791</v>
+        <v>181.4944995819792</v>
       </c>
       <c r="W43" t="n">
-        <v>215.8798545947421</v>
+        <v>215.8798545947422</v>
       </c>
       <c r="X43" t="n">
         <v>155.0665116471883</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.9415096102459</v>
+        <v>147.941509610246</v>
       </c>
     </row>
     <row r="44">
@@ -3986,16 +3986,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>336.2329019998626</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4130840088947</v>
+        <v>412.0882934837995</v>
       </c>
       <c r="H44" t="n">
-        <v>235.9117334380029</v>
+        <v>306.5548771798517</v>
       </c>
       <c r="I44" t="n">
-        <v>15.90789231049226</v>
+        <v>86.55103605234109</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>135.7709262221859</v>
+        <v>121.0957167472816</v>
       </c>
       <c r="T44" t="n">
         <v>209.0246208169599</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0884973853296</v>
+        <v>180.4453536434808</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.626054809422</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="D2" t="n">
-        <v>1066.049756676706</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="E2" t="n">
-        <v>1066.049756676706</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="F2" t="n">
-        <v>787.1037832399832</v>
+        <v>114.1165460204546</v>
       </c>
       <c r="G2" t="n">
-        <v>508.1578098032604</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>393.0625194571773</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>393.0625194571773</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>607.0720109556838</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="C3" t="n">
-        <v>432.6189816745568</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="D3" t="n">
-        <v>432.6189816745568</v>
+        <v>528.1786798587304</v>
       </c>
       <c r="E3" t="n">
-        <v>273.3815266691013</v>
+        <v>368.941224853275</v>
       </c>
       <c r="F3" t="n">
-        <v>273.3815266691013</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618843</v>
@@ -4416,16 +4416,16 @@
         <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>564.734292660806</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N3" t="n">
-        <v>838.1292412261379</v>
+        <v>958.7443668768126</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>983.0476467407057</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>983.0476467407057</v>
+        <v>931.3504462481833</v>
       </c>
       <c r="U3" t="n">
-        <v>983.0476467407057</v>
+        <v>931.3504462481833</v>
       </c>
       <c r="V3" t="n">
-        <v>983.0476467407057</v>
+        <v>931.3504462481833</v>
       </c>
       <c r="W3" t="n">
-        <v>983.0476467407057</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="X3" t="n">
-        <v>983.0476467407057</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="Y3" t="n">
-        <v>775.2873479757518</v>
+        <v>677.1130895199817</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
         <v>22.09252109618843</v>
@@ -4507,31 +4507,31 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="S4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.77675875689394</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1121.847714991751</v>
+        <v>414.9842899942892</v>
       </c>
       <c r="C5" t="n">
-        <v>1121.847714991751</v>
+        <v>414.9842899942892</v>
       </c>
       <c r="D5" t="n">
-        <v>1121.847714991751</v>
+        <v>414.9842899942892</v>
       </c>
       <c r="E5" t="n">
-        <v>751.2153186190108</v>
+        <v>414.9842899942892</v>
       </c>
       <c r="F5" t="n">
-        <v>594.8734094137034</v>
+        <v>44.35189362154696</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2410130409634</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="H5" t="n">
-        <v>224.2410130409634</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="I5" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="J5" t="n">
-        <v>55.74791993830837</v>
+        <v>55.74791993830922</v>
       </c>
       <c r="K5" t="n">
-        <v>216.0502396745434</v>
+        <v>216.0502396745451</v>
       </c>
       <c r="L5" t="n">
-        <v>467.196069750308</v>
+        <v>467.1960697503109</v>
       </c>
       <c r="M5" t="n">
-        <v>763.2507418033927</v>
+        <v>763.250741803397</v>
       </c>
       <c r="N5" t="n">
-        <v>1049.463890420114</v>
+        <v>1049.463890420119</v>
       </c>
       <c r="O5" t="n">
-        <v>1274.539212778869</v>
+        <v>1274.539212778876</v>
       </c>
       <c r="P5" t="n">
-        <v>1428.961410202911</v>
+        <v>1428.961410202919</v>
       </c>
       <c r="Q5" t="n">
-        <v>1467.70428963605</v>
+        <v>1467.704289636059</v>
       </c>
       <c r="R5" t="n">
-        <v>1345.185584511554</v>
+        <v>1345.185584511564</v>
       </c>
       <c r="S5" t="n">
-        <v>1345.185584511554</v>
+        <v>1345.185584511564</v>
       </c>
       <c r="T5" t="n">
-        <v>1121.847714991751</v>
+        <v>1345.185584511564</v>
       </c>
       <c r="U5" t="n">
-        <v>1121.847714991751</v>
+        <v>1345.185584511564</v>
       </c>
       <c r="V5" t="n">
-        <v>1121.847714991751</v>
+        <v>1014.122697167993</v>
       </c>
       <c r="W5" t="n">
-        <v>1121.847714991751</v>
+        <v>785.6166863670314</v>
       </c>
       <c r="X5" t="n">
-        <v>1121.847714991751</v>
+        <v>414.9842899942892</v>
       </c>
       <c r="Y5" t="n">
-        <v>1121.847714991751</v>
+        <v>414.9842899942892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.7415247350993</v>
+        <v>342.292084822573</v>
       </c>
       <c r="C6" t="n">
-        <v>178.2884954539723</v>
+        <v>167.839055541446</v>
       </c>
       <c r="D6" t="n">
-        <v>29.354085792721</v>
+        <v>167.839055541446</v>
       </c>
       <c r="E6" t="n">
-        <v>29.354085792721</v>
+        <v>167.839055541446</v>
       </c>
       <c r="F6" t="n">
-        <v>29.354085792721</v>
+        <v>167.839055541446</v>
       </c>
       <c r="G6" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="H6" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="I6" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="J6" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6219088189725</v>
+        <v>52.66994288295751</v>
       </c>
       <c r="L6" t="n">
-        <v>475.9046650730494</v>
+        <v>334.9526991370353</v>
       </c>
       <c r="M6" t="n">
-        <v>569.7059339365055</v>
+        <v>698.20951082196</v>
       </c>
       <c r="N6" t="n">
-        <v>932.962745621428</v>
+        <v>1061.466322506885</v>
       </c>
       <c r="O6" t="n">
-        <v>1239.047420678516</v>
+        <v>1367.550997563973</v>
       </c>
       <c r="P6" t="n">
-        <v>1467.70428963605</v>
+        <v>1367.550997563973</v>
       </c>
       <c r="Q6" t="n">
-        <v>1467.70428963605</v>
+        <v>1467.704289636059</v>
       </c>
       <c r="R6" t="n">
-        <v>1467.70428963605</v>
+        <v>1381.799377932571</v>
       </c>
       <c r="S6" t="n">
-        <v>1467.70428963605</v>
+        <v>1212.94869459716</v>
       </c>
       <c r="T6" t="n">
-        <v>1399.928212505964</v>
+        <v>1180.356577541329</v>
       </c>
       <c r="U6" t="n">
-        <v>1171.720768957397</v>
+        <v>1180.356577541329</v>
       </c>
       <c r="V6" t="n">
-        <v>936.5686607256541</v>
+        <v>1180.356577541329</v>
       </c>
       <c r="W6" t="n">
-        <v>936.5686607256541</v>
+        <v>926.1192208131278</v>
       </c>
       <c r="X6" t="n">
-        <v>728.7171605201213</v>
+        <v>718.2677206075949</v>
       </c>
       <c r="Y6" t="n">
-        <v>520.9568617551673</v>
+        <v>510.507421842641</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.8358265967811</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="C7" t="n">
-        <v>198.8358265967811</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="D7" t="n">
-        <v>198.8358265967811</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="E7" t="n">
-        <v>198.8358265967811</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="F7" t="n">
-        <v>198.8358265967811</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="G7" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="H7" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="I7" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="J7" t="n">
-        <v>29.354085792721</v>
+        <v>29.35408579272118</v>
       </c>
       <c r="K7" t="n">
-        <v>30.77780568486971</v>
+        <v>30.77780568487027</v>
       </c>
       <c r="L7" t="n">
-        <v>88.12611158017918</v>
+        <v>88.12611158018026</v>
       </c>
       <c r="M7" t="n">
-        <v>158.980982415475</v>
+        <v>158.9809824154766</v>
       </c>
       <c r="N7" t="n">
-        <v>233.5856992125838</v>
+        <v>233.585699212586</v>
       </c>
       <c r="O7" t="n">
-        <v>286.4789347835447</v>
+        <v>286.4789347835472</v>
       </c>
       <c r="P7" t="n">
-        <v>308.2175531744259</v>
+        <v>308.2175531744288</v>
       </c>
       <c r="Q7" t="n">
-        <v>308.2175531744259</v>
+        <v>308.2175531744288</v>
       </c>
       <c r="R7" t="n">
-        <v>198.8358265967811</v>
+        <v>308.2175531744288</v>
       </c>
       <c r="S7" t="n">
-        <v>198.8358265967811</v>
+        <v>308.2175531744288</v>
       </c>
       <c r="T7" t="n">
-        <v>198.8358265967811</v>
+        <v>308.2175531744288</v>
       </c>
       <c r="U7" t="n">
-        <v>198.8358265967811</v>
+        <v>308.2175531744288</v>
       </c>
       <c r="V7" t="n">
-        <v>198.8358265967811</v>
+        <v>308.2175531744288</v>
       </c>
       <c r="W7" t="n">
-        <v>198.8358265967811</v>
+        <v>250.1466649362513</v>
       </c>
       <c r="X7" t="n">
-        <v>198.8358265967811</v>
+        <v>250.1466649362513</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.8358265967811</v>
+        <v>29.35408579272118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>73.91021233765171</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>59.98680827624262</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4838,16 +4838,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.726000495839</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.260242234759</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2358.011273715677</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C11" t="n">
-        <v>1999.551214482915</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D11" t="n">
-        <v>1651.787973583815</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E11" t="n">
-        <v>1276.502178693221</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F11" t="n">
-        <v>876.0187316112635</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G11" t="n">
-        <v>470.2703878201261</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H11" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I11" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J11" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553644</v>
       </c>
       <c r="K11" t="n">
-        <v>860.2779741677795</v>
+        <v>860.2779741677796</v>
       </c>
       <c r="L11" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M11" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N11" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O11" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P11" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q11" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R11" t="n">
-        <v>4709.931160145416</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S11" t="n">
-        <v>4583.291268133686</v>
+        <v>4583.291268133685</v>
       </c>
       <c r="T11" t="n">
-        <v>4382.657745218145</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U11" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.975028456208</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W11" t="n">
-        <v>3476.708830893744</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X11" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y11" t="n">
-        <v>2734.108656072149</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J12" t="n">
         <v>129.4953301443201</v>
       </c>
       <c r="K12" t="n">
-        <v>529.7984336513363</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L12" t="n">
-        <v>762.3278112241837</v>
+        <v>781.1607541011138</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.083508434279</v>
+        <v>1071.868438198709</v>
       </c>
       <c r="N12" t="n">
-        <v>2083.321485342676</v>
+        <v>1384.678934582404</v>
       </c>
       <c r="O12" t="n">
-        <v>2347.262181844118</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P12" t="n">
-        <v>2539.764793966091</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q12" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R12" t="n">
         <v>2625.087782060009</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>233.8128049075941</v>
+        <v>354.6462661379375</v>
       </c>
       <c r="C13" t="n">
-        <v>233.8128049075941</v>
+        <v>354.6462661379375</v>
       </c>
       <c r="D13" t="n">
-        <v>94.19862320290831</v>
+        <v>354.6462661379375</v>
       </c>
       <c r="E13" t="n">
-        <v>94.19862320290831</v>
+        <v>354.6462661379375</v>
       </c>
       <c r="F13" t="n">
-        <v>94.19862320290831</v>
+        <v>354.6462661379375</v>
       </c>
       <c r="G13" t="n">
-        <v>94.19862320290831</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="H13" t="n">
-        <v>94.19862320290831</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="I13" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J13" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529932</v>
       </c>
       <c r="K13" t="n">
-        <v>267.0813524192176</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L13" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M13" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323422</v>
       </c>
       <c r="N13" t="n">
-        <v>1062.584871907533</v>
+        <v>1062.584871907532</v>
       </c>
       <c r="O13" t="n">
         <v>1298.984009272058</v>
@@ -5221,28 +5221,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R13" t="n">
-        <v>1523.75344131139</v>
+        <v>1476.380758525171</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.358518827819</v>
+        <v>1476.380758525171</v>
       </c>
       <c r="T13" t="n">
-        <v>1206.68479499789</v>
+        <v>1476.380758525171</v>
       </c>
       <c r="U13" t="n">
-        <v>928.0555548577314</v>
+        <v>1197.751518385012</v>
       </c>
       <c r="V13" t="n">
-        <v>683.8735243594945</v>
+        <v>953.5694878867752</v>
       </c>
       <c r="W13" t="n">
-        <v>404.9588120301839</v>
+        <v>953.5694878867752</v>
       </c>
       <c r="X13" t="n">
-        <v>404.9588120301839</v>
+        <v>736.0823946964077</v>
       </c>
       <c r="Y13" t="n">
-        <v>404.9588120301839</v>
+        <v>525.7922732605275</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2358.01127371568</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C14" t="n">
-        <v>1999.551214482918</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D14" t="n">
-        <v>1651.787973583817</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E14" t="n">
-        <v>1276.502178693223</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F14" t="n">
-        <v>876.0187316112651</v>
+        <v>876.0187316112639</v>
       </c>
       <c r="G14" t="n">
-        <v>470.2703878201273</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H14" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I14" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J14" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553652</v>
       </c>
       <c r="K14" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677804</v>
       </c>
       <c r="L14" t="n">
         <v>1542.544568462678</v>
       </c>
       <c r="M14" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N14" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O14" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P14" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q14" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R14" t="n">
-        <v>4709.931160145416</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S14" t="n">
-        <v>4583.291268133686</v>
+        <v>4583.291268133685</v>
       </c>
       <c r="T14" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U14" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V14" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W14" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X14" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y14" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I15" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J15" t="n">
-        <v>171.1200272547872</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K15" t="n">
-        <v>571.4231307618033</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L15" t="n">
-        <v>1171.084450185075</v>
+        <v>867.6391684321553</v>
       </c>
       <c r="M15" t="n">
-        <v>1461.792134282671</v>
+        <v>1387.146579152247</v>
       </c>
       <c r="N15" t="n">
-        <v>1774.602630666366</v>
+        <v>1699.957075535941</v>
       </c>
       <c r="O15" t="n">
-        <v>2038.543327167808</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P15" t="n">
         <v>2546.324080243319</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>908.4727512548632</v>
+        <v>597.4490560325268</v>
       </c>
       <c r="C16" t="n">
-        <v>908.4727512548632</v>
+        <v>597.4490560325268</v>
       </c>
       <c r="D16" t="n">
-        <v>768.8585695501772</v>
+        <v>597.4490560325268</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4479336754341</v>
+        <v>460.0384201577835</v>
       </c>
       <c r="F16" t="n">
-        <v>495.0604438851737</v>
+        <v>460.0384201577835</v>
       </c>
       <c r="G16" t="n">
-        <v>337.3314971209149</v>
+        <v>302.3094733935247</v>
       </c>
       <c r="H16" t="n">
         <v>196.9173193736787</v>
       </c>
       <c r="I16" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J16" t="n">
-        <v>112.9886256529934</v>
+        <v>112.9886256529931</v>
       </c>
       <c r="K16" t="n">
-        <v>267.0813524192176</v>
+        <v>267.0813524192172</v>
       </c>
       <c r="L16" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639828</v>
       </c>
       <c r="M16" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323421</v>
       </c>
       <c r="N16" t="n">
-        <v>1062.584871907533</v>
+        <v>1062.584871907532</v>
       </c>
       <c r="O16" t="n">
         <v>1298.984009272058</v>
@@ -5455,31 +5455,31 @@
         <v>1479.229254818016</v>
       </c>
       <c r="Q16" t="n">
-        <v>1523.75344131139</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="R16" t="n">
         <v>1420.659109327292</v>
       </c>
       <c r="S16" t="n">
-        <v>1420.659109327292</v>
+        <v>1230.264186843721</v>
       </c>
       <c r="T16" t="n">
-        <v>1420.659109327292</v>
+        <v>1230.264186843721</v>
       </c>
       <c r="U16" t="n">
-        <v>1142.029869187133</v>
+        <v>1230.264186843721</v>
       </c>
       <c r="V16" t="n">
-        <v>1142.029869187133</v>
+        <v>986.082156345484</v>
       </c>
       <c r="W16" t="n">
-        <v>1142.029869187133</v>
+        <v>986.082156345484</v>
       </c>
       <c r="X16" t="n">
-        <v>1118.762872690743</v>
+        <v>768.5950631551166</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.4727512548632</v>
+        <v>768.5950631551166</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715681</v>
       </c>
       <c r="C17" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482919</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583817</v>
       </c>
       <c r="E17" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693223</v>
       </c>
       <c r="F17" t="n">
-        <v>876.0187316112647</v>
+        <v>876.0187316112654</v>
       </c>
       <c r="G17" t="n">
-        <v>470.2703878201263</v>
+        <v>470.270387820128</v>
       </c>
       <c r="H17" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370187</v>
       </c>
       <c r="I17" t="n">
         <v>94.19862320290829</v>
@@ -5522,13 +5522,13 @@
         <v>1542.544568462677</v>
       </c>
       <c r="M17" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N17" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O17" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P17" t="n">
         <v>4324.639697485002</v>
@@ -5543,22 +5543,22 @@
         <v>4583.291268133685</v>
       </c>
       <c r="T17" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218144</v>
       </c>
       <c r="U17" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092128</v>
       </c>
       <c r="V17" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456208</v>
       </c>
       <c r="W17" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893744</v>
       </c>
       <c r="X17" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340314</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.108656072152</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K18" t="n">
-        <v>267.9778490088835</v>
+        <v>318.2362498531483</v>
       </c>
       <c r="L18" t="n">
-        <v>867.6391684321555</v>
+        <v>550.7656274259956</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.346852529751</v>
+        <v>1302.521324636091</v>
       </c>
       <c r="N18" t="n">
-        <v>1471.157348913446</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.02174149885</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P18" t="n">
         <v>2546.324080243319</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>687.3861127668531</v>
+        <v>392.246530127851</v>
       </c>
       <c r="C19" t="n">
-        <v>528.9523875465961</v>
+        <v>233.8128049075941</v>
       </c>
       <c r="D19" t="n">
-        <v>389.3382058419104</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="E19" t="n">
-        <v>251.927569967167</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="F19" t="n">
-        <v>251.927569967167</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="G19" t="n">
         <v>94.19862320290829</v>
@@ -5671,13 +5671,13 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9886256529934</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K19" t="n">
-        <v>267.0813524192176</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L19" t="n">
-        <v>516.9148004639833</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M19" t="n">
         <v>790.1587150323426</v>
@@ -5686,37 +5686,37 @@
         <v>1062.584871907533</v>
       </c>
       <c r="O19" t="n">
-        <v>1298.984009272059</v>
+        <v>1298.984009272058</v>
       </c>
       <c r="P19" t="n">
-        <v>1479.229254818017</v>
+        <v>1479.229254818016</v>
       </c>
       <c r="Q19" t="n">
         <v>1523.75344131139</v>
       </c>
       <c r="R19" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327293</v>
       </c>
       <c r="S19" t="n">
-        <v>1523.75344131139</v>
+        <v>1230.264186843722</v>
       </c>
       <c r="T19" t="n">
-        <v>1313.00427182356</v>
+        <v>1052.597371015631</v>
       </c>
       <c r="U19" t="n">
-        <v>1313.00427182356</v>
+        <v>1052.597371015631</v>
       </c>
       <c r="V19" t="n">
-        <v>1068.822241325323</v>
+        <v>1052.597371015631</v>
       </c>
       <c r="W19" t="n">
-        <v>1068.822241325323</v>
+        <v>773.6826586863208</v>
       </c>
       <c r="X19" t="n">
-        <v>1068.822241325323</v>
+        <v>773.6826586863208</v>
       </c>
       <c r="Y19" t="n">
-        <v>858.5321198894428</v>
+        <v>563.3925372504407</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2358.011273715678</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C20" t="n">
-        <v>1999.551214482916</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D20" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E20" t="n">
-        <v>1276.502178693221</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F20" t="n">
-        <v>876.018731611264</v>
+        <v>876.0187316112642</v>
       </c>
       <c r="G20" t="n">
-        <v>470.2703878201265</v>
+        <v>470.2703878201271</v>
       </c>
       <c r="H20" t="n">
-        <v>171.1214544370171</v>
+        <v>171.1214544370177</v>
       </c>
       <c r="I20" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J20" t="n">
-        <v>352.4625266553644</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K20" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L20" t="n">
         <v>1542.544568462677</v>
@@ -5765,10 +5765,10 @@
         <v>3091.984352769974</v>
       </c>
       <c r="O20" t="n">
-        <v>3777.360983129466</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P20" t="n">
-        <v>4324.639697485001</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q20" t="n">
         <v>4658.401460222603</v>
@@ -5795,7 +5795,7 @@
         <v>3113.745530340312</v>
       </c>
       <c r="Y20" t="n">
-        <v>2734.10865607215</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J21" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K21" t="n">
-        <v>654.6285586383409</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L21" t="n">
-        <v>887.1579362111883</v>
+        <v>500.5072265817307</v>
       </c>
       <c r="M21" t="n">
-        <v>1177.865620308784</v>
+        <v>1252.262923791826</v>
       </c>
       <c r="N21" t="n">
-        <v>1490.676116692478</v>
+        <v>2039.622370775639</v>
       </c>
       <c r="O21" t="n">
-        <v>1830.566812309317</v>
+        <v>2303.563067277081</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q21" t="n">
         <v>2625.087782060009</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.19862320290829</v>
+        <v>629.1491702589392</v>
       </c>
       <c r="C22" t="n">
-        <v>94.19862320290829</v>
+        <v>470.7154450386822</v>
       </c>
       <c r="D22" t="n">
-        <v>94.19862320290829</v>
+        <v>470.7154450386822</v>
       </c>
       <c r="E22" t="n">
-        <v>94.19862320290829</v>
+        <v>333.3048091639391</v>
       </c>
       <c r="F22" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="G22" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="H22" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="I22" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K22" t="n">
-        <v>267.0813524192174</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L22" t="n">
-        <v>516.9148004639829</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M22" t="n">
-        <v>790.1587150323422</v>
+        <v>790.1587150323426</v>
       </c>
       <c r="N22" t="n">
-        <v>1062.584871907532</v>
+        <v>1062.584871907533</v>
       </c>
       <c r="O22" t="n">
         <v>1298.984009272058</v>
@@ -5929,31 +5929,31 @@
         <v>1479.229254818016</v>
       </c>
       <c r="Q22" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R22" t="n">
-        <v>1523.753441311389</v>
+        <v>1420.659109327293</v>
       </c>
       <c r="S22" t="n">
-        <v>1333.358518827819</v>
+        <v>1400.215706705005</v>
       </c>
       <c r="T22" t="n">
-        <v>1277.360734729085</v>
+        <v>1186.693122728409</v>
       </c>
       <c r="U22" t="n">
-        <v>998.7314945889258</v>
+        <v>908.0638825882498</v>
       </c>
       <c r="V22" t="n">
-        <v>754.5494640906888</v>
+        <v>908.0638825882498</v>
       </c>
       <c r="W22" t="n">
-        <v>475.6347517613783</v>
+        <v>629.1491702589392</v>
       </c>
       <c r="X22" t="n">
-        <v>475.6347517613783</v>
+        <v>629.1491702589392</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3446303254981</v>
+        <v>629.1491702589392</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C23" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D23" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E23" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F23" t="n">
-        <v>876.0187316112645</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G23" t="n">
-        <v>470.270387820127</v>
+        <v>470.2703878201263</v>
       </c>
       <c r="H23" t="n">
-        <v>171.1214544370177</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I23" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J23" t="n">
-        <v>352.4625266553644</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K23" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L23" t="n">
         <v>1542.544568462677</v>
@@ -6002,7 +6002,7 @@
         <v>3091.984352769973</v>
       </c>
       <c r="O23" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P23" t="n">
         <v>4324.639697485001</v>
@@ -6011,28 +6011,28 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R23" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S23" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133684</v>
       </c>
       <c r="T23" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218142</v>
       </c>
       <c r="U23" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092126</v>
       </c>
       <c r="V23" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456205</v>
       </c>
       <c r="W23" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893741</v>
       </c>
       <c r="X23" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340311</v>
       </c>
       <c r="Y23" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I24" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J24" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K24" t="n">
-        <v>654.6285586383409</v>
+        <v>318.2362498531483</v>
       </c>
       <c r="L24" t="n">
-        <v>887.1579362111883</v>
+        <v>550.7656274259956</v>
       </c>
       <c r="M24" t="n">
-        <v>1177.865620308784</v>
+        <v>1302.521324636091</v>
       </c>
       <c r="N24" t="n">
-        <v>1490.676116692478</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O24" t="n">
-        <v>1824.00752603209</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P24" t="n">
-        <v>2331.788279107601</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q24" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R24" t="n">
         <v>2625.087782060009</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>251.9275699671671</v>
+        <v>103.8553212338655</v>
       </c>
       <c r="C25" t="n">
-        <v>251.9275699671671</v>
+        <v>103.8553212338655</v>
       </c>
       <c r="D25" t="n">
-        <v>251.9275699671671</v>
+        <v>103.8553212338655</v>
       </c>
       <c r="E25" t="n">
-        <v>251.9275699671671</v>
+        <v>103.8553212338655</v>
       </c>
       <c r="F25" t="n">
-        <v>251.9275699671671</v>
+        <v>103.8553212338655</v>
       </c>
       <c r="G25" t="n">
-        <v>94.19862320290829</v>
+        <v>103.8553212338655</v>
       </c>
       <c r="H25" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="I25" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J25" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K25" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L25" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M25" t="n">
         <v>790.1587150323425</v>
@@ -6172,25 +6172,25 @@
         <v>1523.75344131139</v>
       </c>
       <c r="S25" t="n">
-        <v>1523.75344131139</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="T25" t="n">
-        <v>1523.75344131139</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="U25" t="n">
-        <v>1373.947534543552</v>
+        <v>1054.729278687661</v>
       </c>
       <c r="V25" t="n">
-        <v>1129.765504045315</v>
+        <v>810.5472481894236</v>
       </c>
       <c r="W25" t="n">
-        <v>850.8507917160044</v>
+        <v>531.632535860113</v>
       </c>
       <c r="X25" t="n">
-        <v>633.363698525637</v>
+        <v>314.1454426697456</v>
       </c>
       <c r="Y25" t="n">
-        <v>423.0735770897569</v>
+        <v>103.8553212338655</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2358.011273715678</v>
       </c>
       <c r="C26" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D26" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E26" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F26" t="n">
-        <v>876.0187316112645</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G26" t="n">
-        <v>470.270387820127</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H26" t="n">
-        <v>171.1214544370177</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I26" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J26" t="n">
-        <v>352.4625266553639</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K26" t="n">
-        <v>860.2779741677791</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L26" t="n">
         <v>1542.544568462677</v>
@@ -6248,10 +6248,10 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R26" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S26" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133684</v>
       </c>
       <c r="T26" t="n">
         <v>4382.657745218143</v>
@@ -6300,28 +6300,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I27" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J27" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K27" t="n">
-        <v>654.6285586383409</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L27" t="n">
-        <v>963.1079353265852</v>
+        <v>867.6391684321553</v>
       </c>
       <c r="M27" t="n">
-        <v>1253.815619424181</v>
+        <v>1158.346852529751</v>
       </c>
       <c r="N27" t="n">
-        <v>1566.626115807875</v>
+        <v>1471.157348913445</v>
       </c>
       <c r="O27" t="n">
-        <v>1830.566812309317</v>
+        <v>2125.02174149885</v>
       </c>
       <c r="P27" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q27" t="n">
         <v>2625.087782060009</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>666.0446557928542</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="C28" t="n">
-        <v>507.6109305725974</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="D28" t="n">
-        <v>367.9967488679117</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="E28" t="n">
-        <v>230.5861129931686</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="F28" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="G28" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="H28" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="I28" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J28" t="n">
         <v>112.9886256529934</v>
       </c>
       <c r="K28" t="n">
-        <v>267.0813524192177</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L28" t="n">
         <v>516.9148004639833</v>
       </c>
       <c r="M28" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323427</v>
       </c>
       <c r="N28" t="n">
         <v>1062.584871907533</v>
@@ -6406,28 +6406,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R28" t="n">
-        <v>1441.075701452691</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S28" t="n">
-        <v>1441.075701452691</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T28" t="n">
-        <v>1441.075701452691</v>
+        <v>1310.230857334794</v>
       </c>
       <c r="U28" t="n">
-        <v>1162.446461312532</v>
+        <v>1031.601617194635</v>
       </c>
       <c r="V28" t="n">
-        <v>1162.446461312532</v>
+        <v>787.419586696398</v>
       </c>
       <c r="W28" t="n">
-        <v>883.5317489832215</v>
+        <v>508.5048743670874</v>
       </c>
       <c r="X28" t="n">
-        <v>666.0446557928542</v>
+        <v>291.01778117672</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.0446557928542</v>
+        <v>94.19862320290828</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6455,46 @@
         <v>470.2703878201262</v>
       </c>
       <c r="H29" t="n">
-        <v>171.1214544370169</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I29" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J29" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K29" t="n">
-        <v>860.2779741677792</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L29" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462679</v>
       </c>
       <c r="M29" t="n">
-        <v>2318.304158787661</v>
+        <v>2318.304158787663</v>
       </c>
       <c r="N29" t="n">
-        <v>3091.984352769973</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O29" t="n">
-        <v>3777.360983129466</v>
+        <v>3777.360983129468</v>
       </c>
       <c r="P29" t="n">
-        <v>4324.639697485001</v>
+        <v>4324.639697485003</v>
       </c>
       <c r="Q29" t="n">
-        <v>4658.401460222603</v>
+        <v>4658.401460222604</v>
       </c>
       <c r="R29" t="n">
-        <v>4709.931160145414</v>
+        <v>4709.931160145416</v>
       </c>
       <c r="S29" t="n">
-        <v>4583.291268133684</v>
+        <v>4583.291268133686</v>
       </c>
       <c r="T29" t="n">
-        <v>4382.657745218142</v>
+        <v>4382.657745218144</v>
       </c>
       <c r="U29" t="n">
-        <v>4139.535458092126</v>
+        <v>4139.535458092128</v>
       </c>
       <c r="V29" t="n">
         <v>3818.975028456205</v>
@@ -6537,31 +6537,31 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I30" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J30" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K30" t="n">
-        <v>654.6285586383409</v>
+        <v>389.3605668816861</v>
       </c>
       <c r="L30" t="n">
-        <v>887.1579362111883</v>
+        <v>621.8899444545334</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.256333146953</v>
+        <v>912.5976285521288</v>
       </c>
       <c r="N30" t="n">
-        <v>1560.066829530648</v>
+        <v>1699.957075535941</v>
       </c>
       <c r="O30" t="n">
-        <v>1824.00752603209</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P30" t="n">
-        <v>2331.788279107601</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q30" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R30" t="n">
         <v>2625.087782060009</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.6109305725973</v>
+        <v>772.7900399206005</v>
       </c>
       <c r="C31" t="n">
-        <v>507.6109305725973</v>
+        <v>614.3563147003437</v>
       </c>
       <c r="D31" t="n">
-        <v>367.9967488679116</v>
+        <v>474.7421329956579</v>
       </c>
       <c r="E31" t="n">
-        <v>230.5861129931686</v>
+        <v>337.3314971209148</v>
       </c>
       <c r="F31" t="n">
-        <v>94.19862320290828</v>
+        <v>337.3314971209148</v>
       </c>
       <c r="G31" t="n">
-        <v>94.19862320290828</v>
+        <v>337.3314971209148</v>
       </c>
       <c r="H31" t="n">
-        <v>94.19862320290828</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="I31" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J31" t="n">
         <v>112.9886256529934</v>
@@ -6625,46 +6625,46 @@
         <v>267.0813524192176</v>
       </c>
       <c r="L31" t="n">
-        <v>516.9148004639833</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M31" t="n">
-        <v>790.1587150323427</v>
+        <v>790.1587150323425</v>
       </c>
       <c r="N31" t="n">
         <v>1062.584871907533</v>
       </c>
       <c r="O31" t="n">
-        <v>1298.984009272059</v>
+        <v>1298.984009272058</v>
       </c>
       <c r="P31" t="n">
         <v>1479.229254818017</v>
       </c>
       <c r="Q31" t="n">
-        <v>1523.753441311391</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R31" t="n">
-        <v>1499.731836023874</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S31" t="n">
-        <v>1309.336913540304</v>
+        <v>1501.47999951266</v>
       </c>
       <c r="T31" t="n">
-        <v>1309.336913540304</v>
+        <v>1501.47999951266</v>
       </c>
       <c r="U31" t="n">
-        <v>1030.707673400145</v>
+        <v>1222.850759372501</v>
       </c>
       <c r="V31" t="n">
-        <v>786.5256429019079</v>
+        <v>1222.850759372501</v>
       </c>
       <c r="W31" t="n">
-        <v>507.6109305725973</v>
+        <v>943.9360470431902</v>
       </c>
       <c r="X31" t="n">
-        <v>507.6109305725973</v>
+        <v>943.9360470431902</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.6109305725973</v>
+        <v>943.9360470431902</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.34832290483</v>
+        <v>2360.171766818875</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.385805964418</v>
+        <v>1991.209249878464</v>
       </c>
       <c r="D32" t="n">
-        <v>1618.120107357668</v>
+        <v>1632.943551271713</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.331854759423</v>
+        <v>1247.155298673469</v>
       </c>
       <c r="F32" t="n">
-        <v>821.3459499698158</v>
+        <v>836.1693938838614</v>
       </c>
       <c r="G32" t="n">
-        <v>405.0951484710284</v>
+        <v>491.2753032354263</v>
       </c>
       <c r="H32" t="n">
-        <v>110.2672012943146</v>
+        <v>181.623912144667</v>
       </c>
       <c r="I32" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J32" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K32" t="n">
-        <v>860.2779741677792</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L32" t="n">
         <v>1542.544568462677</v>
@@ -6713,37 +6713,37 @@
         <v>3091.984352769973</v>
       </c>
       <c r="O32" t="n">
-        <v>3777.360983129466</v>
+        <v>3777.360983129468</v>
       </c>
       <c r="P32" t="n">
-        <v>4324.639697485001</v>
+        <v>4324.639697485003</v>
       </c>
       <c r="Q32" t="n">
-        <v>4658.401460222603</v>
+        <v>4658.401460222604</v>
       </c>
       <c r="R32" t="n">
-        <v>4709.931160145414</v>
+        <v>4709.931160145416</v>
       </c>
       <c r="S32" t="n">
-        <v>4572.788810426034</v>
+        <v>4644.145521276389</v>
       </c>
       <c r="T32" t="n">
-        <v>4433.009540653195</v>
+        <v>4447.83298456724</v>
       </c>
       <c r="U32" t="n">
-        <v>4179.384795819528</v>
+        <v>4194.208239733573</v>
       </c>
       <c r="V32" t="n">
-        <v>3848.321908475958</v>
+        <v>3863.145352390003</v>
       </c>
       <c r="W32" t="n">
-        <v>3495.553253205843</v>
+        <v>3510.376697119889</v>
       </c>
       <c r="X32" t="n">
-        <v>3122.087494944763</v>
+        <v>3136.910938858809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.948162968952</v>
+        <v>2746.771606882997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I33" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J33" t="n">
         <v>129.4953301443201</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.9267044762031</v>
+        <v>640.9267044762034</v>
       </c>
       <c r="C34" t="n">
-        <v>543.3472323986485</v>
+        <v>543.3472323986489</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5873038366651</v>
+        <v>464.5873038366655</v>
       </c>
       <c r="E34" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046247</v>
       </c>
       <c r="F34" t="n">
-        <v>312.4976844570663</v>
+        <v>312.4976844570667</v>
       </c>
       <c r="G34" t="n">
-        <v>215.6229908355099</v>
+        <v>215.6229908355101</v>
       </c>
       <c r="H34" t="n">
         <v>136.0630662309763</v>
       </c>
       <c r="I34" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J34" t="n">
-        <v>172.6318791581559</v>
+        <v>172.631879158156</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3678594295429</v>
+        <v>386.3678594295426</v>
       </c>
       <c r="L34" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M34" t="n">
         <v>1028.731729052993</v>
@@ -6880,7 +6880,7 @@
         <v>2000.899469352691</v>
       </c>
       <c r="R34" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511296</v>
       </c>
       <c r="S34" t="n">
         <v>1829.118721170427</v>
@@ -6889,19 +6889,19 @@
         <v>1676.450390336533</v>
       </c>
       <c r="U34" t="n">
-        <v>1458.675403339076</v>
+        <v>1458.675403339077</v>
       </c>
       <c r="V34" t="n">
         <v>1275.347625983542</v>
       </c>
       <c r="W34" t="n">
-        <v>1057.287166796933</v>
+        <v>1057.287166796934</v>
       </c>
       <c r="X34" t="n">
-        <v>900.6543267492684</v>
+        <v>900.6543267492686</v>
       </c>
       <c r="Y34" t="n">
-        <v>751.2184584560905</v>
+        <v>751.2184584560908</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2360.171766818875</v>
+        <v>2345.348322904831</v>
       </c>
       <c r="C35" t="n">
-        <v>1991.209249878464</v>
+        <v>1976.385805964419</v>
       </c>
       <c r="D35" t="n">
-        <v>1632.943551271713</v>
+        <v>1618.120107357669</v>
       </c>
       <c r="E35" t="n">
-        <v>1247.155298673469</v>
+        <v>1232.331854759424</v>
       </c>
       <c r="F35" t="n">
-        <v>836.1693938838614</v>
+        <v>821.3459499698167</v>
       </c>
       <c r="G35" t="n">
-        <v>419.918592385074</v>
+        <v>476.4518593213817</v>
       </c>
       <c r="H35" t="n">
-        <v>181.623912144667</v>
+        <v>166.8004682306224</v>
       </c>
       <c r="I35" t="n">
         <v>94.19862320290829</v>
@@ -6962,25 +6962,25 @@
         <v>4709.931160145415</v>
       </c>
       <c r="S35" t="n">
-        <v>4587.612254340079</v>
+        <v>4572.788810426035</v>
       </c>
       <c r="T35" t="n">
-        <v>4447.83298456724</v>
+        <v>4433.009540653195</v>
       </c>
       <c r="U35" t="n">
-        <v>4194.208239733573</v>
+        <v>4179.384795819529</v>
       </c>
       <c r="V35" t="n">
-        <v>3863.145352390003</v>
+        <v>3848.321908475958</v>
       </c>
       <c r="W35" t="n">
-        <v>3510.376697119889</v>
+        <v>3495.553253205844</v>
       </c>
       <c r="X35" t="n">
-        <v>3136.910938858809</v>
+        <v>3122.087494944764</v>
       </c>
       <c r="Y35" t="n">
-        <v>2746.771606882997</v>
+        <v>2731.948162968953</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.9267044762031</v>
+        <v>640.9267044762034</v>
       </c>
       <c r="C37" t="n">
-        <v>543.3472323986485</v>
+        <v>543.3472323986489</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5873038366651</v>
+        <v>464.5873038366656</v>
       </c>
       <c r="E37" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046248</v>
       </c>
       <c r="F37" t="n">
-        <v>312.4976844570663</v>
+        <v>312.4976844570668</v>
       </c>
       <c r="G37" t="n">
-        <v>215.6229908355102</v>
+        <v>215.6229908355101</v>
       </c>
       <c r="H37" t="n">
         <v>136.0630662309763</v>
@@ -7093,13 +7093,13 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J37" t="n">
-        <v>172.6318791581557</v>
+        <v>172.6318791581559</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3678594295425</v>
+        <v>386.3678594295427</v>
       </c>
       <c r="L37" t="n">
-        <v>695.8445609794707</v>
+        <v>695.8445609794709</v>
       </c>
       <c r="M37" t="n">
         <v>1028.731729052993</v>
@@ -7111,7 +7111,7 @@
         <v>1656.843530303034</v>
       </c>
       <c r="P37" t="n">
-        <v>1896.732029354154</v>
+        <v>1896.732029354155</v>
       </c>
       <c r="Q37" t="n">
         <v>2000.899469352691</v>
@@ -7132,13 +7132,13 @@
         <v>1275.347625983542</v>
       </c>
       <c r="W37" t="n">
-        <v>1057.287166796933</v>
+        <v>1057.287166796934</v>
       </c>
       <c r="X37" t="n">
-        <v>900.6543267492682</v>
+        <v>900.6543267492686</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2184584560905</v>
+        <v>751.2184584560907</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>836.1693938838614</v>
       </c>
       <c r="G38" t="n">
-        <v>419.918592385074</v>
+        <v>491.2753032354263</v>
       </c>
       <c r="H38" t="n">
-        <v>110.2672012943146</v>
+        <v>181.623912144667</v>
       </c>
       <c r="I38" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J38" t="n">
-        <v>352.4625266553644</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K38" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L38" t="n">
         <v>1542.544568462677</v>
@@ -7187,7 +7187,7 @@
         <v>3091.984352769973</v>
       </c>
       <c r="O38" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P38" t="n">
         <v>4324.639697485001</v>
@@ -7196,28 +7196,28 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R38" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S38" t="n">
-        <v>4572.788810426035</v>
+        <v>4572.788810426034</v>
       </c>
       <c r="T38" t="n">
-        <v>4361.652829802842</v>
+        <v>4376.476273716888</v>
       </c>
       <c r="U38" t="n">
-        <v>4122.851528883221</v>
+        <v>4194.208239733573</v>
       </c>
       <c r="V38" t="n">
-        <v>3791.788641539651</v>
+        <v>3863.145352390003</v>
       </c>
       <c r="W38" t="n">
-        <v>3439.019986269536</v>
+        <v>3510.376697119889</v>
       </c>
       <c r="X38" t="n">
-        <v>3065.554228008456</v>
+        <v>3136.910938858809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2675.414896032645</v>
+        <v>2746.771606882997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I39" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J39" t="n">
-        <v>171.1200272547878</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K39" t="n">
-        <v>571.4231307618039</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L39" t="n">
-        <v>1171.084450185076</v>
+        <v>500.5072265817307</v>
       </c>
       <c r="M39" t="n">
-        <v>1461.792134282671</v>
+        <v>1252.262923791826</v>
       </c>
       <c r="N39" t="n">
-        <v>1774.602630666366</v>
+        <v>2039.622370775639</v>
       </c>
       <c r="O39" t="n">
-        <v>2038.543327167808</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P39" t="n">
         <v>2546.324080243319</v>
@@ -7318,22 +7318,22 @@
         <v>388.0309211046242</v>
       </c>
       <c r="F40" t="n">
-        <v>312.497684457066</v>
+        <v>312.4976844570662</v>
       </c>
       <c r="G40" t="n">
-        <v>215.6229908355102</v>
+        <v>215.6229908355101</v>
       </c>
       <c r="H40" t="n">
         <v>136.0630662309763</v>
       </c>
       <c r="I40" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J40" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581558</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3678594295427</v>
+        <v>386.3678594295426</v>
       </c>
       <c r="L40" t="n">
         <v>695.8445609794708</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2360.171766818875</v>
+        <v>2345.348322904831</v>
       </c>
       <c r="C41" t="n">
-        <v>1991.209249878464</v>
+        <v>1976.385805964419</v>
       </c>
       <c r="D41" t="n">
-        <v>1632.943551271713</v>
+        <v>1618.120107357669</v>
       </c>
       <c r="E41" t="n">
-        <v>1247.155298673469</v>
+        <v>1232.331854759424</v>
       </c>
       <c r="F41" t="n">
-        <v>836.1693938838614</v>
+        <v>821.3459499698167</v>
       </c>
       <c r="G41" t="n">
-        <v>419.918592385074</v>
+        <v>405.0951484710293</v>
       </c>
       <c r="H41" t="n">
-        <v>181.623912144667</v>
+        <v>166.8004682306224</v>
       </c>
       <c r="I41" t="n">
         <v>94.19862320290829</v>
@@ -7418,43 +7418,43 @@
         <v>1542.544568462677</v>
       </c>
       <c r="M41" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N41" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769972</v>
       </c>
       <c r="O41" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129465</v>
       </c>
       <c r="P41" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485</v>
       </c>
       <c r="Q41" t="n">
-        <v>4658.401460222603</v>
+        <v>4658.401460222602</v>
       </c>
       <c r="R41" t="n">
         <v>4709.931160145415</v>
       </c>
       <c r="S41" t="n">
-        <v>4572.788810426035</v>
+        <v>4644.145521276388</v>
       </c>
       <c r="T41" t="n">
-        <v>4361.652829802842</v>
+        <v>4433.009540653195</v>
       </c>
       <c r="U41" t="n">
-        <v>4122.851528883221</v>
+        <v>4179.384795819529</v>
       </c>
       <c r="V41" t="n">
-        <v>3791.788641539651</v>
+        <v>3848.321908475958</v>
       </c>
       <c r="W41" t="n">
-        <v>3439.019986269536</v>
+        <v>3495.553253205844</v>
       </c>
       <c r="X41" t="n">
-        <v>3065.554228008456</v>
+        <v>3122.087494944764</v>
       </c>
       <c r="Y41" t="n">
-        <v>2675.414896032645</v>
+        <v>2731.948162968953</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J42" t="n">
-        <v>171.0046446001425</v>
+        <v>129.49533014432</v>
       </c>
       <c r="K42" t="n">
-        <v>571.3077481071585</v>
+        <v>529.798433651336</v>
       </c>
       <c r="L42" t="n">
-        <v>803.8371256800058</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M42" t="n">
-        <v>1094.544809777601</v>
+        <v>1420.167437172203</v>
       </c>
       <c r="N42" t="n">
-        <v>1881.904256761414</v>
+        <v>1732.977933555898</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.844953262856</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P42" t="n">
-        <v>2338.347565384829</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q42" t="n">
         <v>2625.087782060009</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.9267044762031</v>
+        <v>640.9267044762032</v>
       </c>
       <c r="C43" t="n">
-        <v>543.3472323986485</v>
+        <v>543.3472323986487</v>
       </c>
       <c r="D43" t="n">
         <v>464.5873038366652</v>
@@ -7570,10 +7570,10 @@
         <v>172.6318791581559</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3678594295427</v>
+        <v>386.3678594295429</v>
       </c>
       <c r="L43" t="n">
-        <v>695.8445609794708</v>
+        <v>695.844560979471</v>
       </c>
       <c r="M43" t="n">
         <v>1028.731729052993</v>
@@ -7585,10 +7585,10 @@
         <v>1656.843530303034</v>
       </c>
       <c r="P43" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q43" t="n">
-        <v>2000.899469352691</v>
+        <v>2000.89946935269</v>
       </c>
       <c r="R43" t="n">
         <v>1958.659390511295</v>
@@ -7609,10 +7609,10 @@
         <v>1057.287166796933</v>
       </c>
       <c r="X43" t="n">
-        <v>900.6543267492684</v>
+        <v>900.6543267492682</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2184584560904</v>
+        <v>751.2184584560906</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2273.991612054478</v>
+        <v>2360.171766818875</v>
       </c>
       <c r="C44" t="n">
-        <v>1905.029095114066</v>
+        <v>1991.209249878464</v>
       </c>
       <c r="D44" t="n">
-        <v>1546.763396507316</v>
+        <v>1632.943551271713</v>
       </c>
       <c r="E44" t="n">
-        <v>1160.975143909071</v>
+        <v>1247.155298673469</v>
       </c>
       <c r="F44" t="n">
-        <v>749.9892391194637</v>
+        <v>907.5261047342137</v>
       </c>
       <c r="G44" t="n">
-        <v>348.5618815347216</v>
+        <v>491.2753032354263</v>
       </c>
       <c r="H44" t="n">
-        <v>110.2672012943146</v>
+        <v>181.623912144667</v>
       </c>
       <c r="I44" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J44" t="n">
-        <v>352.4625266553644</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K44" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677791</v>
       </c>
       <c r="L44" t="n">
         <v>1542.544568462677</v>
@@ -7661,7 +7661,7 @@
         <v>3091.984352769973</v>
       </c>
       <c r="O44" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P44" t="n">
         <v>4324.639697485001</v>
@@ -7673,25 +7673,25 @@
         <v>4709.931160145415</v>
       </c>
       <c r="S44" t="n">
-        <v>4572.788810426035</v>
+        <v>4587.61225434008</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.652829802842</v>
+        <v>4376.476273716888</v>
       </c>
       <c r="U44" t="n">
-        <v>4108.028084969176</v>
+        <v>4194.208239733573</v>
       </c>
       <c r="V44" t="n">
-        <v>3776.965197625605</v>
+        <v>3863.145352390003</v>
       </c>
       <c r="W44" t="n">
-        <v>3424.196542355491</v>
+        <v>3510.376697119889</v>
       </c>
       <c r="X44" t="n">
-        <v>3050.730784094411</v>
+        <v>3136.910938858809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2660.5914521186</v>
+        <v>2746.771606882997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,16 +7728,16 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K45" t="n">
-        <v>267.9778490088834</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L45" t="n">
-        <v>867.6391684321553</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.346852529751</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N45" t="n">
-        <v>1471.157348913445</v>
+        <v>1732.977933555898</v>
       </c>
       <c r="O45" t="n">
         <v>2038.543327167808</v>
@@ -7837,7 +7837,7 @@
         <v>1676.450390336533</v>
       </c>
       <c r="U46" t="n">
-        <v>1458.675403339077</v>
+        <v>1458.675403339076</v>
       </c>
       <c r="V46" t="n">
         <v>1275.347625983542</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>277.3705002792435</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>192.3176965815309</v>
       </c>
       <c r="P3" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>103.8419372411733</v>
+        <v>103.8419372411729</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>122.0895138448859</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>175.2115133379717</v>
+        <v>447.3888293192519</v>
       </c>
       <c r="N6" t="n">
-        <v>434.964252286676</v>
+        <v>434.9642522866771</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>87.49623433939639</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.9123462488941</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.4884116357404</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>259.0176570956585</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715145</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720749</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>42.04514859643137</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>231.1108349722183</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.89612811715142</v>
+        <v>38.89612811715145</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504508</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>50.76606145885341</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>231.1108349722178</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.89612811715142</v>
+        <v>38.89612811715145</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>76.71717082363307</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>50.76606145885359</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>38.89612811715145</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>50.76606145885341</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>70.09162912946408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715145</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>76.7171708236333</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>231.1108349722184</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>38.89612811715145</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>122.6088059321239</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>70.0916291294642</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715145</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>42.04514859643207</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>50.76606145885364</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928348</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298419</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>41.92860046042676</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>42.04514859643314</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>38.89612811715149</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>306.5103856090107</v>
+        <v>42.04514859643189</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.935951145300314e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>156.8493879680544</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E13" t="n">
         <v>136.0365295159957</v>
@@ -23428,13 +23428,13 @@
         <v>135.0236148923578</v>
       </c>
       <c r="G13" t="n">
-        <v>156.1516572966162</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>139.0100359697638</v>
       </c>
       <c r="I13" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.0633886642566</v>
+        <v>55.16443270590027</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T13" t="n">
-        <v>85.98037154520077</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X13" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>156.8493879680544</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34.6718034901161</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>211.3873581368307</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V16" t="n">
-        <v>241.7402101932546</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.1255652060175</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X16" t="n">
-        <v>192.2778957270371</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F19" t="n">
         <v>135.0236148923578</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H19" t="n">
         <v>139.0100359697638</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.0633886642566</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.745680343878432</v>
+        <v>35.49721046702138</v>
       </c>
       <c r="U19" t="n">
         <v>275.8429477387573</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W19" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>215.3122222584637</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>138.2180398876389</v>
       </c>
       <c r="E22" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>156.1516572966162</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H22" t="n">
         <v>139.0100359697638</v>
       </c>
       <c r="I22" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.0633886642566</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.2520046626701</v>
       </c>
       <c r="T22" t="n">
-        <v>155.9495518790843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>215.3122222584637</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8493879680544</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D25" t="n">
         <v>138.2180398876389</v>
@@ -24376,10 +24376,10 @@
         <v>135.0236148923578</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H25" t="n">
-        <v>139.0100359697638</v>
+        <v>129.4499049191163</v>
       </c>
       <c r="I25" t="n">
         <v>101.6915092090627</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.0633886642566</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S25" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>211.3873581368306</v>
       </c>
       <c r="U25" t="n">
-        <v>127.5351000385978</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>169.4345470513638</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.2180398876388</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>135.0236148923577</v>
       </c>
       <c r="G28" t="n">
-        <v>156.151657296616</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H28" t="n">
         <v>139.0100359697637</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.21242620414395</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S28" t="n">
         <v>188.490973258735</v>
       </c>
       <c r="T28" t="n">
-        <v>211.3873581368306</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.7402101932545</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.1872202215212</v>
+        <v>13.33625382744768</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.4345470513638</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.8493879680543</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>135.0236148923577</v>
       </c>
       <c r="G31" t="n">
-        <v>156.151657296616</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H31" t="n">
-        <v>139.0100359697637</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>101.6915092090626</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.28199942961533</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.4402658779916</v>
       </c>
       <c r="T31" t="n">
         <v>211.3873581368306</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>215.3122222584636</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.1872202215212</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="32">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194635</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
-        <v>176978.3461567407</v>
+        <v>176978.3461567408</v>
       </c>
       <c r="F2" t="n">
         <v>176978.3461567408</v>
       </c>
       <c r="G2" t="n">
-        <v>176978.3461567407</v>
+        <v>176978.3461567408</v>
       </c>
       <c r="H2" t="n">
-        <v>176978.3461567406</v>
+        <v>176978.3461567408</v>
       </c>
       <c r="I2" t="n">
         <v>176978.3461567406</v>
       </c>
       <c r="J2" t="n">
-        <v>176978.3461567408</v>
+        <v>176978.3461567407</v>
       </c>
       <c r="K2" t="n">
         <v>176978.3461567406</v>
@@ -26347,13 +26347,13 @@
         <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194637</v>
       </c>
-      <c r="O2" t="n">
-        <v>184734.3982194638</v>
-      </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>100476.7337101054</v>
+        <v>100476.7337101078</v>
       </c>
       <c r="D3" t="n">
-        <v>322070.2142555304</v>
+        <v>322070.2142555281</v>
       </c>
       <c r="E3" t="n">
-        <v>497476.0416545637</v>
+        <v>497476.0416545635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80572.6413755979</v>
+        <v>80572.64137559783</v>
       </c>
       <c r="K3" t="n">
-        <v>23361.17978521487</v>
+        <v>23361.17978521555</v>
       </c>
       <c r="L3" t="n">
-        <v>125986.922045674</v>
+        <v>125986.9220456735</v>
       </c>
       <c r="M3" t="n">
-        <v>125398.3356886933</v>
+        <v>125398.3356886932</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8317.946504458871</v>
+        <v>8317.946504458771</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>254493.5842743093</v>
+        <v>254493.5842743086</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>25768.29375740657</v>
+        <v>25768.29375740656</v>
       </c>
       <c r="F4" t="n">
-        <v>25768.29375740657</v>
+        <v>25768.29375740656</v>
       </c>
       <c r="G4" t="n">
         <v>25768.29375740659</v>
       </c>
       <c r="H4" t="n">
-        <v>25768.29375740658</v>
+        <v>25768.29375740662</v>
       </c>
       <c r="I4" t="n">
-        <v>25768.29375740656</v>
+        <v>25768.29375740663</v>
       </c>
       <c r="J4" t="n">
-        <v>25768.29375740668</v>
+        <v>25768.29375740665</v>
       </c>
       <c r="K4" t="n">
-        <v>25768.29375740666</v>
+        <v>25768.29375740654</v>
       </c>
       <c r="L4" t="n">
-        <v>45592.13492527045</v>
+        <v>45592.13492527034</v>
       </c>
       <c r="M4" t="n">
-        <v>45592.13492527038</v>
+        <v>45592.13492527042</v>
       </c>
       <c r="N4" t="n">
-        <v>45592.13492527044</v>
+        <v>45592.13492527047</v>
       </c>
       <c r="O4" t="n">
-        <v>45592.13492527047</v>
+        <v>45592.13492527043</v>
       </c>
       <c r="P4" t="n">
-        <v>45592.13492527045</v>
+        <v>45592.13492527043</v>
       </c>
     </row>
     <row r="5">
@@ -26470,40 +26470,40 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58403.55628293916</v>
+        <v>58403.55628293935</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="F5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="G5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="H5" t="n">
         <v>89896.18181098947</v>
       </c>
       <c r="I5" t="n">
-        <v>89896.18181098947</v>
+        <v>89896.18181098945</v>
       </c>
       <c r="J5" t="n">
+        <v>89896.18181098945</v>
+      </c>
+      <c r="K5" t="n">
         <v>89896.18181098948</v>
       </c>
-      <c r="K5" t="n">
-        <v>89896.18181098947</v>
-      </c>
       <c r="L5" t="n">
+        <v>94960.97845636879</v>
+      </c>
+      <c r="M5" t="n">
+        <v>94960.97845636879</v>
+      </c>
+      <c r="N5" t="n">
         <v>94960.97845636876</v>
-      </c>
-      <c r="M5" t="n">
-        <v>94960.97845636877</v>
-      </c>
-      <c r="N5" t="n">
-        <v>94960.97845636877</v>
       </c>
       <c r="O5" t="n">
         <v>94960.97845636877</v>
@@ -26522,46 +26522,46 @@
         <v>-276096.6681375123</v>
       </c>
       <c r="C6" t="n">
-        <v>-228639.4760478903</v>
+        <v>-228639.4760478921</v>
       </c>
       <c r="D6" t="n">
-        <v>-376969.8523506988</v>
+        <v>-376969.8523506965</v>
       </c>
       <c r="E6" t="n">
-        <v>-436162.1710662191</v>
+        <v>-436248.3494224712</v>
       </c>
       <c r="F6" t="n">
-        <v>61313.87058834478</v>
+        <v>61227.69223209226</v>
       </c>
       <c r="G6" t="n">
-        <v>61313.87058834467</v>
+        <v>61227.6922320922</v>
       </c>
       <c r="H6" t="n">
-        <v>61313.87058834474</v>
+        <v>61227.6922320922</v>
       </c>
       <c r="I6" t="n">
-        <v>61313.87058834459</v>
+        <v>61227.69223209204</v>
       </c>
       <c r="J6" t="n">
-        <v>-19258.77078725331</v>
+        <v>-19344.94914350567</v>
       </c>
       <c r="K6" t="n">
-        <v>37952.6908031296</v>
+        <v>37866.51244687653</v>
       </c>
       <c r="L6" t="n">
-        <v>-81805.63720784956</v>
+        <v>-81805.63720784901</v>
       </c>
       <c r="M6" t="n">
-        <v>-81217.05085086879</v>
+        <v>-81217.05085086872</v>
       </c>
       <c r="N6" t="n">
-        <v>44181.28483782448</v>
+        <v>44181.28483782444</v>
       </c>
       <c r="O6" t="n">
-        <v>35863.33833336568</v>
+        <v>35863.33833336573</v>
       </c>
       <c r="P6" t="n">
-        <v>44181.28483782444</v>
+        <v>44181.28483782441</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F2" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G2" t="n">
         <v>10.39743313057346</v>
       </c>
       <c r="H2" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I2" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="K2" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="L2" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M2" t="n">
+        <v>70.64314374184883</v>
+      </c>
+      <c r="N2" t="n">
         <v>70.6431437418488</v>
       </c>
-      <c r="N2" t="n">
-        <v>70.64314374184879</v>
-      </c>
       <c r="O2" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P2" t="n">
         <v>70.64314374184883</v>
@@ -26738,19 +26738,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1583064436333</v>
+        <v>113.1583064436352</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>799.5929527947247</v>
+        <v>799.5929527947245</v>
       </c>
       <c r="F3" t="n">
-        <v>799.5929527947247</v>
+        <v>799.5929527947245</v>
       </c>
       <c r="G3" t="n">
-        <v>799.5929527947247</v>
+        <v>799.5929527947245</v>
       </c>
       <c r="H3" t="n">
         <v>799.5929527947245</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>366.9260724090125</v>
+        <v>366.9260724090148</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26808,22 +26808,22 @@
         <v>1177.482790036354</v>
       </c>
       <c r="I4" t="n">
+        <v>1177.482790036353</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1177.482790036353</v>
+      </c>
+      <c r="K4" t="n">
         <v>1177.482790036354</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>1177.482790036354</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1177.482790036353</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1177.482790036353</v>
       </c>
       <c r="M4" t="n">
         <v>1177.482790036354</v>
       </c>
       <c r="N4" t="n">
-        <v>1177.482790036354</v>
+        <v>1177.482790036353</v>
       </c>
       <c r="O4" t="n">
         <v>1177.482790036354</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.730349362740526e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057353</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.24571061127524</v>
+        <v>60.24571061127534</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057359</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>78.13704572450794</v>
+        <v>78.13704572450983</v>
       </c>
       <c r="D3" t="n">
-        <v>264.5853577734534</v>
+        <v>264.5853577734515</v>
       </c>
       <c r="E3" t="n">
-        <v>421.8492885776381</v>
+        <v>421.8492885776379</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.227049534059144e-14</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>90.76955870665711</v>
+        <v>90.76955870665932</v>
       </c>
       <c r="D4" t="n">
-        <v>307.3612003455431</v>
+        <v>307.3612003455409</v>
       </c>
       <c r="E4" t="n">
-        <v>503.1955172817983</v>
+        <v>503.1955172817981</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>90.76955870665688</v>
+        <v>90.76955870665955</v>
       </c>
       <c r="L4" t="n">
-        <v>307.361200345543</v>
+        <v>307.3612003455409</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817985</v>
+        <v>503.1955172817978</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.730349362740526e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057353</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>90.76955870665711</v>
+        <v>90.76955870665932</v>
       </c>
       <c r="L4" t="n">
-        <v>307.3612003455431</v>
+        <v>307.3612003455409</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817983</v>
+        <v>503.1955172817981</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>316.4925064692942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>324.0581638522959</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>49.92134863330426</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>28.31824849654583</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27558,7 +27558,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.21686115039994</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>80.19643759900801</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00429766324925</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>252.0975556284571</v>
+        <v>39.94997333269669</v>
       </c>
       <c r="G5" t="n">
-        <v>47.92175734152499</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.8159779715828</v>
+        <v>334.8159779715827</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.9380579757597</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.6538589004793</v>
+        <v>198.6538589004792</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.1044908246057</v>
       </c>
       <c r="U5" t="n">
         <v>251.3092602866687</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>123.020018024461</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>2.805028269454283</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1001200512375</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>109.8847405498089</v>
       </c>
       <c r="I6" t="n">
-        <v>81.01651298742902</v>
+        <v>81.01651298742888</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>85.04586258645377</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>167.1621765020568</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>132.0853511697943</v>
+        <v>166.9174716433071</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9253691130818</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.7869233960194</v>
       </c>
       <c r="H7" t="n">
-        <v>160.4129294959335</v>
+        <v>160.4129294959334</v>
       </c>
       <c r="I7" t="n">
-        <v>149.3139556204462</v>
+        <v>149.3139556204461</v>
       </c>
       <c r="J7" t="n">
-        <v>78.93242357221153</v>
+        <v>78.93242357221129</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.07513897870577</v>
+        <v>69.07513897870548</v>
       </c>
       <c r="R7" t="n">
-        <v>59.83038397234687</v>
+        <v>168.1182932842151</v>
       </c>
       <c r="S7" t="n">
-        <v>220.4604591279158</v>
+        <v>220.4604591279157</v>
       </c>
       <c r="T7" t="n">
         <v>227.0737139524043</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>229.0328189807952</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.9393845730378</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>83.5305116750651</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7069916148868</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>4.669206330491363</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="L13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="M13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="N13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="O13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="P13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="R13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="S13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="L16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="M16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="N16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="O16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="P16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="R16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="17">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F20" t="n">
-        <v>10.39743313057392</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="K22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="L22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="M22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="N22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="O22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="P22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="R22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I23" t="n">
-        <v>10.39743313057279</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057369</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="K25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="L25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="M25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="N25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="O25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="P25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="R25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="S25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="C26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="D26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="E26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="F26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="G26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="H26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="I26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="T26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="U26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="V26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="W26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="X26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="C28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="D28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="E28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="F28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="G28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="H28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="I28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="J28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="K28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="L28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="M28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="N28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="O28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="P28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="R28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="T28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="U28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="V28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="W28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="X28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="C29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="D29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="E29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="F29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="G29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="H29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="I29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="T29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="U29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="V29" t="n">
-        <v>10.39743313057306</v>
+        <v>10.39743313057124</v>
       </c>
       <c r="W29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="X29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="C31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="D31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="E31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="F31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="G31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="H31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="I31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="J31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="K31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="L31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="M31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="N31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="O31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="P31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="R31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="S31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="T31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="U31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="V31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="W31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="X31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.39743313057354</v>
+        <v>10.39743313057351</v>
       </c>
     </row>
     <row r="32">
@@ -29761,13 +29761,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H32" t="n">
-        <v>14.67520947490505</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,10 +29797,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T32" t="n">
-        <v>70.64314374184879</v>
+        <v>14.67520947490252</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="D34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="E34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="F34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="G34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="J34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="K34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="L34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="N34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="O34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="R34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="S34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="W34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
     <row r="35">
@@ -29998,13 +29998,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="H35" t="n">
-        <v>70.6431437418488</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>14.67520947490418</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,10 +30034,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>14.67520947490344</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="C37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="D37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="E37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="F37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="G37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="H37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="I37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="J37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="K37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="L37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="M37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="N37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="O37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="P37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="R37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="S37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="T37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="U37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="V37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="W37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="X37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184883</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,13 +30235,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30274,10 +30274,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>14.67520947490522</v>
       </c>
       <c r="U38" t="n">
-        <v>14.67520947490476</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="C40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="D40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="E40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="F40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="K40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="L40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="O40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="P40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="R40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="S40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="T40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>70.64314374184885</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,10 +30475,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>14.67520947490422</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.67520947490476</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="D43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="E43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="F43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="G43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="J43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="K43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="L43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="N43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="O43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="R43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="S43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="W43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.64314374184885</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
     <row r="44">
@@ -30706,52 +30706,52 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>70.64314374184883</v>
       </c>
       <c r="G44" t="n">
-        <v>14.67520947490476</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>14.67520947490434</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>70.64314374184883</v>
-      </c>
-      <c r="I44" t="n">
-        <v>70.64314374184883</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4549077645975203</v>
+        <v>0.4549077645975279</v>
       </c>
       <c r="H5" t="n">
-        <v>4.658824144184356</v>
+        <v>4.658824144184434</v>
       </c>
       <c r="I5" t="n">
-        <v>17.53783159464592</v>
+        <v>17.53783159464621</v>
       </c>
       <c r="J5" t="n">
-        <v>38.60972788550882</v>
+        <v>38.60972788550947</v>
       </c>
       <c r="K5" t="n">
-        <v>57.86597356092187</v>
+        <v>57.86597356092284</v>
       </c>
       <c r="L5" t="n">
-        <v>71.78785706172324</v>
+        <v>71.78785706172445</v>
       </c>
       <c r="M5" t="n">
-        <v>79.8778230203844</v>
+        <v>79.87782302038573</v>
       </c>
       <c r="N5" t="n">
-        <v>81.17032970654711</v>
+        <v>81.17032970654847</v>
       </c>
       <c r="O5" t="n">
-        <v>76.64684062233052</v>
+        <v>76.64684062233179</v>
       </c>
       <c r="P5" t="n">
-        <v>65.41630518382922</v>
+        <v>65.41630518383032</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.12492086418051</v>
+        <v>49.12492086418133</v>
       </c>
       <c r="R5" t="n">
-        <v>28.57559986789901</v>
+        <v>28.57559986789949</v>
       </c>
       <c r="S5" t="n">
-        <v>10.366210685766</v>
+        <v>10.36621068576618</v>
       </c>
       <c r="T5" t="n">
-        <v>1.991358739525646</v>
+        <v>1.99135873952568</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03639262116780162</v>
+        <v>0.03639262116780222</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.243397111973098</v>
+        <v>0.243397111973102</v>
       </c>
       <c r="H6" t="n">
-        <v>2.350703686687552</v>
+        <v>2.350703686687591</v>
       </c>
       <c r="I6" t="n">
-        <v>8.380119863986049</v>
+        <v>8.38011986398619</v>
       </c>
       <c r="J6" t="n">
-        <v>22.99568942549344</v>
+        <v>22.99568942549382</v>
       </c>
       <c r="K6" t="n">
-        <v>39.303295927691</v>
+        <v>39.30329592769166</v>
       </c>
       <c r="L6" t="n">
-        <v>52.84813170275533</v>
+        <v>52.84813170275622</v>
       </c>
       <c r="M6" t="n">
-        <v>61.67127701178012</v>
+        <v>61.67127701178115</v>
       </c>
       <c r="N6" t="n">
-        <v>63.3035322056699</v>
+        <v>63.30353220567095</v>
       </c>
       <c r="O6" t="n">
-        <v>57.91036461931862</v>
+        <v>57.91036461931959</v>
       </c>
       <c r="P6" t="n">
-        <v>46.47817307493307</v>
+        <v>46.47817307493385</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.06942783712739</v>
+        <v>31.0694278371279</v>
       </c>
       <c r="R6" t="n">
-        <v>15.11197156618937</v>
+        <v>15.11197156618962</v>
       </c>
       <c r="S6" t="n">
-        <v>4.520994601781005</v>
+        <v>4.520994601781081</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9810611662424428</v>
+        <v>0.9810611662424592</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01601296789296698</v>
+        <v>0.01601296789296724</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2040559624393387</v>
+        <v>0.2040559624393421</v>
       </c>
       <c r="H7" t="n">
-        <v>1.814243011506121</v>
+        <v>1.814243011506152</v>
       </c>
       <c r="I7" t="n">
-        <v>6.136519306812113</v>
+        <v>6.136519306812215</v>
       </c>
       <c r="J7" t="n">
-        <v>14.42675654446124</v>
+        <v>14.42675654446148</v>
       </c>
       <c r="K7" t="n">
-        <v>23.70759272704316</v>
+        <v>23.70759272704355</v>
       </c>
       <c r="L7" t="n">
-        <v>30.33755645211768</v>
+        <v>30.33755645211819</v>
       </c>
       <c r="M7" t="n">
-        <v>31.98669963946833</v>
+        <v>31.98669963946886</v>
       </c>
       <c r="N7" t="n">
-        <v>31.22612741583082</v>
+        <v>31.22612741583134</v>
       </c>
       <c r="O7" t="n">
-        <v>28.84238276369853</v>
+        <v>28.84238276369901</v>
       </c>
       <c r="P7" t="n">
-        <v>24.679641129936</v>
+        <v>24.67964112993641</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.08690427298862</v>
+        <v>17.08690427298891</v>
       </c>
       <c r="R7" t="n">
-        <v>9.175098092954261</v>
+        <v>9.175098092954414</v>
       </c>
       <c r="S7" t="n">
-        <v>3.556138909056473</v>
+        <v>3.556138909056533</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8718754758771741</v>
+        <v>0.8718754758771886</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01113032522396394</v>
+        <v>0.01113032522396412</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>3.214444031335574</v>
       </c>
       <c r="H11" t="n">
-        <v>32.91992493591546</v>
+        <v>32.91992493591545</v>
       </c>
       <c r="I11" t="n">
-        <v>123.9248535180649</v>
+        <v>123.9248535180648</v>
       </c>
       <c r="J11" t="n">
         <v>272.8219191045679</v>
       </c>
       <c r="K11" t="n">
-        <v>408.8893349510029</v>
+        <v>408.8893349510028</v>
       </c>
       <c r="L11" t="n">
-        <v>507.2633764749891</v>
+        <v>507.2633764749889</v>
       </c>
       <c r="M11" t="n">
-        <v>564.4282455172531</v>
+        <v>564.4282455172529</v>
       </c>
       <c r="N11" t="n">
-        <v>573.5612846212854</v>
+        <v>573.5612846212852</v>
       </c>
       <c r="O11" t="n">
-        <v>541.5976567846922</v>
+        <v>541.597656784692</v>
       </c>
       <c r="P11" t="n">
-        <v>462.2410697610951</v>
+        <v>462.241069761095</v>
       </c>
       <c r="Q11" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888896</v>
       </c>
       <c r="R11" t="n">
-        <v>201.9193198833835</v>
+        <v>201.9193198833834</v>
       </c>
       <c r="S11" t="n">
-        <v>73.24914336405948</v>
+        <v>73.24914336405945</v>
       </c>
       <c r="T11" t="n">
         <v>14.07122874717148</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.2571555225068458</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.719879181482993</v>
+        <v>1.719879181482992</v>
       </c>
       <c r="H12" t="n">
-        <v>16.61041209484891</v>
+        <v>16.6104120948489</v>
       </c>
       <c r="I12" t="n">
-        <v>59.21513848526972</v>
+        <v>59.2151384852697</v>
       </c>
       <c r="J12" t="n">
         <v>162.4908660014261</v>
@@ -31847,28 +31847,28 @@
         <v>373.4325389443665</v>
       </c>
       <c r="M12" t="n">
-        <v>435.7781592731249</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3119104507018</v>
+        <v>447.3119104507016</v>
       </c>
       <c r="O12" t="n">
-        <v>409.2030085873154</v>
+        <v>409.2030085873153</v>
       </c>
       <c r="P12" t="n">
-        <v>328.4214903658182</v>
+        <v>328.4214903658181</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.5410688503554</v>
+        <v>219.5410688503553</v>
       </c>
       <c r="R12" t="n">
         <v>106.7833758468125</v>
       </c>
       <c r="S12" t="n">
-        <v>31.94600146307224</v>
+        <v>31.94600146307223</v>
       </c>
       <c r="T12" t="n">
-        <v>6.932320034135394</v>
+        <v>6.932320034135392</v>
       </c>
       <c r="U12" t="n">
         <v>0.1131499461501969</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.441888931269176</v>
+        <v>1.441888931269175</v>
       </c>
       <c r="H13" t="n">
-        <v>12.81970340710232</v>
+        <v>12.81970340710231</v>
       </c>
       <c r="I13" t="n">
-        <v>43.36153258762213</v>
+        <v>43.36153258762211</v>
       </c>
       <c r="J13" t="n">
         <v>101.9415474407307</v>
       </c>
       <c r="K13" t="n">
-        <v>167.5212776510915</v>
+        <v>167.5212776510914</v>
       </c>
       <c r="L13" t="n">
-        <v>214.3695598361464</v>
+        <v>214.3695598361463</v>
       </c>
       <c r="M13" t="n">
         <v>226.0226440170399</v>
       </c>
       <c r="N13" t="n">
-        <v>220.6483307277641</v>
+        <v>220.648330727764</v>
       </c>
       <c r="O13" t="n">
-        <v>203.8044463943014</v>
+        <v>203.8044463943013</v>
       </c>
       <c r="P13" t="n">
-        <v>174.3899121964101</v>
+        <v>174.38991219641</v>
       </c>
       <c r="Q13" t="n">
         <v>120.7385358720034</v>
       </c>
       <c r="R13" t="n">
-        <v>64.83256958233946</v>
+        <v>64.83256958233945</v>
       </c>
       <c r="S13" t="n">
-        <v>25.12819164766372</v>
+        <v>25.12819164766371</v>
       </c>
       <c r="T13" t="n">
-        <v>6.160798160877385</v>
+        <v>6.160798160877383</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07864848716013695</v>
+        <v>0.07864848716013692</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>3.214444031335574</v>
       </c>
       <c r="H14" t="n">
-        <v>32.91992493591546</v>
+        <v>32.91992493591545</v>
       </c>
       <c r="I14" t="n">
-        <v>123.9248535180649</v>
+        <v>123.9248535180648</v>
       </c>
       <c r="J14" t="n">
         <v>272.8219191045679</v>
       </c>
       <c r="K14" t="n">
-        <v>408.8893349510029</v>
+        <v>408.8893349510028</v>
       </c>
       <c r="L14" t="n">
-        <v>507.2633764749891</v>
+        <v>507.2633764749889</v>
       </c>
       <c r="M14" t="n">
-        <v>564.4282455172531</v>
+        <v>564.4282455172529</v>
       </c>
       <c r="N14" t="n">
-        <v>573.5612846212854</v>
+        <v>573.5612846212852</v>
       </c>
       <c r="O14" t="n">
-        <v>541.5976567846922</v>
+        <v>541.597656784692</v>
       </c>
       <c r="P14" t="n">
-        <v>462.2410697610951</v>
+        <v>462.241069761095</v>
       </c>
       <c r="Q14" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888896</v>
       </c>
       <c r="R14" t="n">
-        <v>201.9193198833835</v>
+        <v>201.9193198833834</v>
       </c>
       <c r="S14" t="n">
-        <v>73.24914336405948</v>
+        <v>73.24914336405945</v>
       </c>
       <c r="T14" t="n">
         <v>14.07122874717148</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.2571555225068458</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.719879181482993</v>
+        <v>1.719879181482992</v>
       </c>
       <c r="H15" t="n">
-        <v>16.61041209484891</v>
+        <v>16.6104120948489</v>
       </c>
       <c r="I15" t="n">
-        <v>59.21513848526972</v>
+        <v>59.2151384852697</v>
       </c>
       <c r="J15" t="n">
         <v>162.4908660014261</v>
@@ -32084,28 +32084,28 @@
         <v>373.4325389443665</v>
       </c>
       <c r="M15" t="n">
-        <v>435.7781592731249</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3119104507018</v>
+        <v>447.3119104507016</v>
       </c>
       <c r="O15" t="n">
-        <v>409.2030085873154</v>
+        <v>409.2030085873153</v>
       </c>
       <c r="P15" t="n">
-        <v>328.4214903658182</v>
+        <v>328.4214903658181</v>
       </c>
       <c r="Q15" t="n">
-        <v>219.5410688503554</v>
+        <v>219.5410688503553</v>
       </c>
       <c r="R15" t="n">
         <v>106.7833758468125</v>
       </c>
       <c r="S15" t="n">
-        <v>31.94600146307224</v>
+        <v>31.94600146307223</v>
       </c>
       <c r="T15" t="n">
-        <v>6.932320034135394</v>
+        <v>6.932320034135392</v>
       </c>
       <c r="U15" t="n">
         <v>0.1131499461501969</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.441888931269176</v>
+        <v>1.441888931269175</v>
       </c>
       <c r="H16" t="n">
-        <v>12.81970340710232</v>
+        <v>12.81970340710231</v>
       </c>
       <c r="I16" t="n">
-        <v>43.36153258762213</v>
+        <v>43.36153258762211</v>
       </c>
       <c r="J16" t="n">
         <v>101.9415474407307</v>
       </c>
       <c r="K16" t="n">
-        <v>167.5212776510915</v>
+        <v>167.5212776510914</v>
       </c>
       <c r="L16" t="n">
-        <v>214.3695598361464</v>
+        <v>214.3695598361463</v>
       </c>
       <c r="M16" t="n">
         <v>226.0226440170399</v>
       </c>
       <c r="N16" t="n">
-        <v>220.6483307277641</v>
+        <v>220.648330727764</v>
       </c>
       <c r="O16" t="n">
-        <v>203.8044463943014</v>
+        <v>203.8044463943013</v>
       </c>
       <c r="P16" t="n">
-        <v>174.3899121964101</v>
+        <v>174.38991219641</v>
       </c>
       <c r="Q16" t="n">
         <v>120.7385358720034</v>
       </c>
       <c r="R16" t="n">
-        <v>64.83256958233946</v>
+        <v>64.83256958233945</v>
       </c>
       <c r="S16" t="n">
-        <v>25.12819164766372</v>
+        <v>25.12819164766371</v>
       </c>
       <c r="T16" t="n">
-        <v>6.160798160877385</v>
+        <v>6.160798160877383</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07864848716013695</v>
+        <v>0.07864848716013692</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>3.214444031335574</v>
       </c>
       <c r="H17" t="n">
-        <v>32.91992493591546</v>
+        <v>32.91992493591545</v>
       </c>
       <c r="I17" t="n">
-        <v>123.9248535180649</v>
+        <v>123.9248535180648</v>
       </c>
       <c r="J17" t="n">
         <v>272.8219191045679</v>
       </c>
       <c r="K17" t="n">
-        <v>408.8893349510029</v>
+        <v>408.8893349510028</v>
       </c>
       <c r="L17" t="n">
-        <v>507.2633764749891</v>
+        <v>507.2633764749889</v>
       </c>
       <c r="M17" t="n">
-        <v>564.4282455172531</v>
+        <v>564.4282455172529</v>
       </c>
       <c r="N17" t="n">
-        <v>573.5612846212854</v>
+        <v>573.5612846212852</v>
       </c>
       <c r="O17" t="n">
-        <v>541.5976567846922</v>
+        <v>541.597656784692</v>
       </c>
       <c r="P17" t="n">
-        <v>462.2410697610951</v>
+        <v>462.241069761095</v>
       </c>
       <c r="Q17" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888896</v>
       </c>
       <c r="R17" t="n">
-        <v>201.9193198833835</v>
+        <v>201.9193198833834</v>
       </c>
       <c r="S17" t="n">
-        <v>73.24914336405948</v>
+        <v>73.24914336405945</v>
       </c>
       <c r="T17" t="n">
         <v>14.07122874717148</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.2571555225068458</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.719879181482993</v>
+        <v>1.719879181482992</v>
       </c>
       <c r="H18" t="n">
-        <v>16.61041209484891</v>
+        <v>16.6104120948489</v>
       </c>
       <c r="I18" t="n">
-        <v>59.21513848526972</v>
+        <v>59.2151384852697</v>
       </c>
       <c r="J18" t="n">
         <v>162.4908660014261</v>
@@ -32321,28 +32321,28 @@
         <v>373.4325389443665</v>
       </c>
       <c r="M18" t="n">
-        <v>435.7781592731249</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3119104507018</v>
+        <v>447.3119104507016</v>
       </c>
       <c r="O18" t="n">
-        <v>409.2030085873154</v>
+        <v>409.2030085873153</v>
       </c>
       <c r="P18" t="n">
-        <v>328.4214903658182</v>
+        <v>328.4214903658181</v>
       </c>
       <c r="Q18" t="n">
-        <v>219.5410688503554</v>
+        <v>219.5410688503553</v>
       </c>
       <c r="R18" t="n">
         <v>106.7833758468125</v>
       </c>
       <c r="S18" t="n">
-        <v>31.94600146307224</v>
+        <v>31.94600146307223</v>
       </c>
       <c r="T18" t="n">
-        <v>6.932320034135394</v>
+        <v>6.932320034135392</v>
       </c>
       <c r="U18" t="n">
         <v>0.1131499461501969</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.441888931269176</v>
+        <v>1.441888931269175</v>
       </c>
       <c r="H19" t="n">
-        <v>12.81970340710232</v>
+        <v>12.81970340710231</v>
       </c>
       <c r="I19" t="n">
-        <v>43.36153258762213</v>
+        <v>43.36153258762211</v>
       </c>
       <c r="J19" t="n">
         <v>101.9415474407307</v>
       </c>
       <c r="K19" t="n">
-        <v>167.5212776510915</v>
+        <v>167.5212776510914</v>
       </c>
       <c r="L19" t="n">
-        <v>214.3695598361464</v>
+        <v>214.3695598361463</v>
       </c>
       <c r="M19" t="n">
         <v>226.0226440170399</v>
       </c>
       <c r="N19" t="n">
-        <v>220.6483307277641</v>
+        <v>220.648330727764</v>
       </c>
       <c r="O19" t="n">
-        <v>203.8044463943014</v>
+        <v>203.8044463943013</v>
       </c>
       <c r="P19" t="n">
-        <v>174.3899121964101</v>
+        <v>174.38991219641</v>
       </c>
       <c r="Q19" t="n">
         <v>120.7385358720034</v>
       </c>
       <c r="R19" t="n">
-        <v>64.83256958233946</v>
+        <v>64.83256958233945</v>
       </c>
       <c r="S19" t="n">
-        <v>25.12819164766372</v>
+        <v>25.12819164766371</v>
       </c>
       <c r="T19" t="n">
-        <v>6.160798160877385</v>
+        <v>6.160798160877383</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07864848716013695</v>
+        <v>0.07864848716013692</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>154.3230534491485</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>67.64407789397694</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>26.66043853089631</v>
+        <v>26.66043853089695</v>
       </c>
       <c r="K5" t="n">
-        <v>161.9215350871061</v>
+        <v>161.921535087107</v>
       </c>
       <c r="L5" t="n">
-        <v>253.6826566421864</v>
+        <v>253.6826566421877</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0451232859442</v>
+        <v>299.0451232859455</v>
       </c>
       <c r="N5" t="n">
-        <v>289.1041905219404</v>
+        <v>289.1041905219417</v>
       </c>
       <c r="O5" t="n">
-        <v>227.3488104633892</v>
+        <v>227.3488104633904</v>
       </c>
       <c r="P5" t="n">
-        <v>155.9820176000423</v>
+        <v>155.9820176000434</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.13422164963571</v>
+        <v>39.13422164963652</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>165.9270939659106</v>
+        <v>23.55137079821852</v>
       </c>
       <c r="L6" t="n">
-        <v>285.1340972263403</v>
+        <v>285.1340972263412</v>
       </c>
       <c r="M6" t="n">
-        <v>94.74875642773347</v>
+        <v>366.9260724090148</v>
       </c>
       <c r="N6" t="n">
-        <v>366.9260724090125</v>
+        <v>366.9260724090148</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1764394516037</v>
+        <v>309.1764394516047</v>
       </c>
       <c r="P6" t="n">
-        <v>230.96653430054</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>101.1649414869555</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.438100901160308</v>
+        <v>1.438100901160702</v>
       </c>
       <c r="L7" t="n">
-        <v>57.92758171243382</v>
+        <v>57.92758171243433</v>
       </c>
       <c r="M7" t="n">
-        <v>71.57057660130891</v>
+        <v>71.57057660130945</v>
       </c>
       <c r="N7" t="n">
-        <v>75.35829979505941</v>
+        <v>75.35829979505993</v>
       </c>
       <c r="O7" t="n">
-        <v>53.4275106777382</v>
+        <v>53.42751067773869</v>
       </c>
       <c r="P7" t="n">
-        <v>21.95820039482949</v>
+        <v>21.9582003948299</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L11" t="n">
-        <v>689.1581760554523</v>
+        <v>689.1581760554521</v>
       </c>
       <c r="M11" t="n">
-        <v>783.5955457828129</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N11" t="n">
-        <v>781.4951454366786</v>
+        <v>781.4951454366784</v>
       </c>
       <c r="O11" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257506</v>
       </c>
       <c r="P11" t="n">
         <v>552.8067821773082</v>
       </c>
       <c r="Q11" t="n">
-        <v>337.1330936743449</v>
+        <v>337.1330936743448</v>
       </c>
       <c r="R11" t="n">
-        <v>52.05020194223377</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.65323933475943</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K12" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L12" t="n">
-        <v>234.8781591644923</v>
+        <v>518.3665708002327</v>
       </c>
       <c r="M12" t="n">
-        <v>759.3491891011065</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N12" t="n">
-        <v>574.9878554630269</v>
+        <v>315.9701983673683</v>
       </c>
       <c r="O12" t="n">
-        <v>266.606764142871</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P12" t="n">
-        <v>194.447082951488</v>
+        <v>512.909851591425</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.55929476433388</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R12" t="n">
-        <v>6.625541694169399</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.97980045463139</v>
+        <v>18.97980045463132</v>
       </c>
       <c r="K13" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L13" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M13" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094538</v>
       </c>
       <c r="N13" t="n">
-        <v>275.1779362375661</v>
+        <v>275.177936237566</v>
       </c>
       <c r="O13" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P13" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>260.8726297499554</v>
+        <v>260.8726297499565</v>
       </c>
       <c r="K14" t="n">
         <v>512.9448964771871</v>
       </c>
       <c r="L14" t="n">
-        <v>689.1581760554523</v>
+        <v>689.1581760554521</v>
       </c>
       <c r="M14" t="n">
-        <v>783.5955457828129</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N14" t="n">
-        <v>781.4951454366786</v>
+        <v>781.4951454366784</v>
       </c>
       <c r="O14" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257506</v>
       </c>
       <c r="P14" t="n">
         <v>552.8067821773082</v>
       </c>
       <c r="Q14" t="n">
-        <v>337.1330936743449</v>
+        <v>337.1330936743448</v>
       </c>
       <c r="R14" t="n">
-        <v>52.05020194223377</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>77.69838793119081</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K15" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L15" t="n">
-        <v>605.7185044679516</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M15" t="n">
-        <v>293.6441253511066</v>
+        <v>524.7549603233248</v>
       </c>
       <c r="N15" t="n">
-        <v>315.9701983673684</v>
+        <v>315.9701983673683</v>
       </c>
       <c r="O15" t="n">
-        <v>266.606764142871</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P15" t="n">
-        <v>512.9098515914252</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.55929476433388</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.97980045463138</v>
+        <v>18.97980045463132</v>
       </c>
       <c r="K16" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L16" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M16" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094538</v>
       </c>
       <c r="N16" t="n">
-        <v>275.1779362375661</v>
+        <v>275.177936237566</v>
       </c>
       <c r="O16" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P16" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L17" t="n">
-        <v>689.1581760554527</v>
+        <v>689.1581760554521</v>
       </c>
       <c r="M17" t="n">
-        <v>783.5955457828129</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N17" t="n">
-        <v>781.4951454366786</v>
+        <v>781.4951454366784</v>
       </c>
       <c r="O17" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257506</v>
       </c>
       <c r="P17" t="n">
         <v>552.8067821773082</v>
       </c>
       <c r="Q17" t="n">
-        <v>337.1330936743449</v>
+        <v>337.1330936743448</v>
       </c>
       <c r="R17" t="n">
-        <v>52.05020194223377</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.65323933475943</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K18" t="n">
-        <v>139.8813321864276</v>
+        <v>190.647393645281</v>
       </c>
       <c r="L18" t="n">
-        <v>605.7185044679516</v>
+        <v>234.8781591644923</v>
       </c>
       <c r="M18" t="n">
-        <v>293.6441253511066</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N18" t="n">
-        <v>315.9701983673684</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O18" t="n">
-        <v>660.4690834196006</v>
+        <v>266.6067641428709</v>
       </c>
       <c r="P18" t="n">
-        <v>425.5579179237058</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.55929476433388</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.9798004546314</v>
+        <v>18.97980045463136</v>
       </c>
       <c r="K19" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L19" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M19" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N19" t="n">
         <v>275.1779362375661</v>
@@ -36057,10 +36057,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P19" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088247</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K21" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L21" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M21" t="n">
-        <v>293.6441253511065</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N21" t="n">
-        <v>315.9701983673683</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O21" t="n">
-        <v>343.3239349665039</v>
+        <v>266.6067641428709</v>
       </c>
       <c r="P21" t="n">
-        <v>512.909851591425</v>
+        <v>245.2131444103414</v>
       </c>
       <c r="Q21" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.97980045463132</v>
+        <v>18.97980045463138</v>
       </c>
       <c r="K22" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L22" t="n">
-        <v>252.3570182270359</v>
+        <v>252.357018227036</v>
       </c>
       <c r="M22" t="n">
-        <v>276.0039541094538</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N22" t="n">
-        <v>275.177936237566</v>
+        <v>275.1779362375661</v>
       </c>
       <c r="O22" t="n">
-        <v>238.7870074389144</v>
+        <v>238.7870074389145</v>
       </c>
       <c r="P22" t="n">
-        <v>182.0659045918769</v>
+        <v>182.065904591877</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.97392575088244</v>
+        <v>44.9739257508825</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K24" t="n">
-        <v>404.3465691990062</v>
+        <v>190.647393645281</v>
       </c>
       <c r="L24" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M24" t="n">
-        <v>293.6441253511065</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N24" t="n">
-        <v>315.9701983673683</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O24" t="n">
-        <v>336.698393272335</v>
+        <v>266.6067641428709</v>
       </c>
       <c r="P24" t="n">
-        <v>512.909851591425</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R24" t="n">
-        <v>6.625541694169371</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.97980045463135</v>
+        <v>18.97980045463138</v>
       </c>
       <c r="K25" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L25" t="n">
-        <v>252.3570182270359</v>
+        <v>252.357018227036</v>
       </c>
       <c r="M25" t="n">
         <v>276.0039541094539</v>
@@ -36531,10 +36531,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P25" t="n">
-        <v>182.0659045918769</v>
+        <v>182.065904591877</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.97392575088247</v>
+        <v>44.9739257508825</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K27" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L27" t="n">
-        <v>311.5953299881256</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M27" t="n">
         <v>293.6441253511065</v>
@@ -36686,13 +36686,13 @@
         <v>315.9701983673683</v>
       </c>
       <c r="O27" t="n">
-        <v>266.6067641428709</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P27" t="n">
-        <v>512.909851591425</v>
+        <v>425.5579179237062</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.97980045463144</v>
+        <v>18.97980045463141</v>
       </c>
       <c r="K28" t="n">
         <v>155.6492189557821</v>
@@ -36771,7 +36771,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.97392575088256</v>
+        <v>44.97392575088253</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K30" t="n">
-        <v>404.3465691990062</v>
+        <v>262.4901381185515</v>
       </c>
       <c r="L30" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M30" t="n">
-        <v>363.7357544805707</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N30" t="n">
-        <v>315.9701983673683</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O30" t="n">
-        <v>266.6067641428709</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P30" t="n">
-        <v>512.909851591425</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q30" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R30" t="n">
-        <v>6.625541694169371</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.97980045463144</v>
+        <v>18.97980045463142</v>
       </c>
       <c r="K31" t="n">
         <v>155.6492189557821</v>
@@ -37008,7 +37008,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.97392575088256</v>
+        <v>44.97392575088253</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.22551106590669</v>
+        <v>79.22551106590672</v>
       </c>
       <c r="K34" t="n">
-        <v>215.8949295670573</v>
+        <v>215.8949295670574</v>
       </c>
       <c r="L34" t="n">
-        <v>312.6027288383112</v>
+        <v>312.6027288383113</v>
       </c>
       <c r="M34" t="n">
         <v>336.2496647207292</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.2255110659067</v>
+        <v>79.22551106590673</v>
       </c>
       <c r="K37" t="n">
-        <v>215.8949295670573</v>
+        <v>215.8949295670574</v>
       </c>
       <c r="L37" t="n">
-        <v>312.6027288383112</v>
+        <v>312.6027288383113</v>
       </c>
       <c r="M37" t="n">
         <v>336.2496647207292</v>
       </c>
       <c r="N37" t="n">
-        <v>335.4236468488414</v>
+        <v>335.4236468488415</v>
       </c>
       <c r="O37" t="n">
         <v>299.0327180501898</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>77.69838793119145</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K39" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L39" t="n">
-        <v>605.7185044679514</v>
+        <v>234.8781591644923</v>
       </c>
       <c r="M39" t="n">
-        <v>293.6441253511065</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N39" t="n">
-        <v>315.9701983673683</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O39" t="n">
-        <v>266.6067641428709</v>
+        <v>317.3728256017245</v>
       </c>
       <c r="P39" t="n">
-        <v>512.909851591425</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q39" t="n">
         <v>79.5592947643338</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.22551106590669</v>
+        <v>79.2255110659067</v>
       </c>
       <c r="K40" t="n">
         <v>215.8949295670573</v>
@@ -37786,7 +37786,7 @@
         <v>689.158176055452</v>
       </c>
       <c r="M41" t="n">
-        <v>783.5955457828148</v>
+        <v>783.5955457828126</v>
       </c>
       <c r="N41" t="n">
         <v>781.4951454366783</v>
@@ -37801,7 +37801,7 @@
         <v>337.1330936743448</v>
       </c>
       <c r="R41" t="n">
-        <v>52.05020194223366</v>
+        <v>52.0502019422354</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>77.58183979518608</v>
+        <v>35.65323933475932</v>
       </c>
       <c r="K42" t="n">
         <v>404.3465691990061</v>
       </c>
       <c r="L42" t="n">
-        <v>234.8781591644922</v>
+        <v>605.7185044679513</v>
       </c>
       <c r="M42" t="n">
         <v>293.6441253511064</v>
       </c>
       <c r="N42" t="n">
-        <v>795.3125727109217</v>
+        <v>315.9701983673682</v>
       </c>
       <c r="O42" t="n">
-        <v>266.6067641428708</v>
+        <v>308.6519127393039</v>
       </c>
       <c r="P42" t="n">
-        <v>194.4470829514877</v>
+        <v>512.909851591425</v>
       </c>
       <c r="Q42" t="n">
-        <v>289.6365825001828</v>
+        <v>79.55929476433374</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.22551106590672</v>
+        <v>79.22551106590669</v>
       </c>
       <c r="K43" t="n">
-        <v>215.8949295670574</v>
+        <v>215.8949295670573</v>
       </c>
       <c r="L43" t="n">
         <v>312.6027288383112</v>
@@ -38096,7 +38096,7 @@
         <v>35.65323933475938</v>
       </c>
       <c r="K45" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L45" t="n">
         <v>605.7185044679514</v>
@@ -38108,7 +38108,7 @@
         <v>315.9701983673683</v>
       </c>
       <c r="O45" t="n">
-        <v>573.1171497518816</v>
+        <v>308.6519127393028</v>
       </c>
       <c r="P45" t="n">
         <v>512.909851591425</v>
